--- a/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_5/out_of_sample/ligand/LOO_XPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_5/out_of_sample/ligand/LOO_XPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.507</v>
+        <v>-0.144</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.084</v>
+        <v>29.232</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.522</v>
+        <v>-0.843</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.62</v>
+        <v>23.795</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.871</v>
+        <v>-0.002</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10.247</v>
+        <v>28.594</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-20.68427234733005</v>
+        <v>36.26051583436534</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>-14.18675682839984</v>
+        <v>36.26051586354524</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>-8.656189780028505</v>
+        <v>36.26051587506181</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-32.05915546721162</v>
+        <v>36.26051585438099</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>-9.993315098250996</v>
+        <v>36.26051588941161</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>-2.881743985398487</v>
+        <v>36.26051590144815</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>-30.002235093192</v>
+        <v>36.26051585610431</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1.808004021046798</v>
+        <v>36.26051589290525</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>9.384858839988251</v>
+        <v>36.26051590353007</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2.688874966342208</v>
+        <v>36.26051591058695</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>9.604938936186358</v>
+        <v>36.26051592202084</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>15.0389465784099</v>
+        <v>36.26051592785415</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>-18.72532551285965</v>
+        <v>36.2605158810596</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>-2.354478780282435</v>
+        <v>36.26051591922857</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>8.961477188785864</v>
+        <v>36.2605159280525</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>-21.92237620204993</v>
+        <v>36.26051589006251</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>-5.802381728728975</v>
+        <v>36.26051592468816</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4.413670896365947</v>
+        <v>36.26051593961805</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-32.08180609825697</v>
+        <v>36.26051590974689</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>-10.69607892769717</v>
+        <v>36.26051594803124</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6.552221002750695</v>
+        <v>36.26051596518875</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>-34.19015622085258</v>
+        <v>36.26051591797088</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>4.66133393318303</v>
+        <v>36.26051596030568</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>23.3762815450495</v>
+        <v>36.26051597523128</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>4.311046556147726</v>
+        <v>36.26051597292139</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>15.69745518811284</v>
+        <v>36.26051598868608</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>24.03207912075592</v>
+        <v>36.2605159956232</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>-22.1578885163787</v>
+        <v>36.26051593864169</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>16.96510313081832</v>
+        <v>36.26051598690781</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>28.34550210820651</v>
+        <v>36.2605159972923</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>-11.36339806481373</v>
+        <v>36.26051593855085</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>7.962285502982127</v>
+        <v>36.26051597542677</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>20.46261784609214</v>
+        <v>36.26051599092978</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>-24.78978677191083</v>
+        <v>36.26051595848988</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>8.109287357607666</v>
+        <v>36.26051599920945</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>23.15417597852834</v>
+        <v>36.26051601695105</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>-22.54101384526924</v>
+        <v>36.26051596894617</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>28.35319945435689</v>
+        <v>36.26051601371748</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>43.86603474665155</v>
+        <v>36.26051602837996</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>41.45820043148084</v>
+        <v>36.26051602464832</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>49.29175686903396</v>
+        <v>36.26051603906796</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>58.9234965419417</v>
+        <v>36.26051604477749</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>-5.236988507949263</v>
+        <v>36.26051598586264</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>45.36839915731495</v>
+        <v>36.26051603427345</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>56.69903039466787</v>
+        <v>36.26051604493599</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>-18.02122893342633</v>
+        <v>36.26051584470927</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>4.021831158859481</v>
+        <v>36.26051587407434</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>12.78265658600196</v>
+        <v>36.26051588516101</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>-23.26840034370993</v>
+        <v>36.26051586413568</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>15.91587270282807</v>
+        <v>36.26051589994341</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>20.15348532427158</v>
+        <v>36.26051591105072</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>-20.07074858744248</v>
+        <v>36.26051586632239</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>30.37661363411805</v>
+        <v>36.26051590340296</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>37.83666773151695</v>
+        <v>36.26051591322354</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>28.16268716539054</v>
+        <v>36.26051591923499</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>38.19359730162815</v>
+        <v>36.26051592991983</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>39.41166214300206</v>
+        <v>36.26051593500892</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>-11.65246267106878</v>
+        <v>36.26051588792462</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>23.00299780013716</v>
+        <v>36.26051592682374</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>31.57926673912074</v>
+        <v>36.26051593492316</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>-25.74732107813655</v>
+        <v>36.26051589139345</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>0.8445050221029291</v>
+        <v>36.26051592589552</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>9.782368185963826</v>
+        <v>36.26051593977524</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>-32.52367309655599</v>
+        <v>36.2605159098273</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>0.7314645187929258</v>
+        <v>36.26051594856681</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>9.761422527806349</v>
+        <v>36.26051596408368</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>-33.91269576392435</v>
+        <v>36.26051591834116</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>17.55245360681672</v>
+        <v>36.26051596067762</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>32.36923631303289</v>
+        <v>36.26051597409916</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>16.89445807894965</v>
+        <v>36.26051597229462</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>27.87967086169064</v>
+        <v>36.26051598672981</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>32.74210970559222</v>
+        <v>36.26051599296281</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>-21.79735761666239</v>
+        <v>36.26051593668184</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>29.31753337930581</v>
+        <v>36.2605159846102</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>37.68767260527752</v>
+        <v>36.26051599420602</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>-19.08458812378905</v>
+        <v>36.2605159373089</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>12.75179481206168</v>
+        <v>36.26051597381335</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>22.61546786992211</v>
+        <v>36.26051598829814</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>-26.34866066661393</v>
+        <v>36.26051595643971</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>18.50269975997099</v>
+        <v>36.26051599757782</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>25.80720227720433</v>
+        <v>36.26051601356904</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>-25.75647327422807</v>
+        <v>36.26051596686178</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>39.45499457039462</v>
+        <v>36.26051601132047</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>50.18227814086475</v>
+        <v>36.2605160246037</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>47.72796197170371</v>
+        <v>36.26051602167896</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>58.41138569894527</v>
+        <v>36.26051603505091</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>65.12870236684155</v>
+        <v>36.26051604015639</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>-9.365020623502794</v>
+        <v>36.26051598183047</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>54.80725864884126</v>
+        <v>36.26051603020933</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>62.05303833779894</v>
+        <v>36.26051603989818</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>-11.69887952442136</v>
+        <v>36.26051584385901</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>6.458829599671276</v>
+        <v>36.26051587319574</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>12.43336311820847</v>
+        <v>36.26051588411318</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>-21.31140118232834</v>
+        <v>36.26051586302703</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>16.36524944526182</v>
+        <v>36.26051589888428</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>18.45513158342122</v>
+        <v>36.26051590979505</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>-16.23102733568088</v>
+        <v>36.26051586514659</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>31.46628075277955</v>
+        <v>36.26051590220325</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>35.54677864494229</v>
+        <v>36.26051591190024</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>30.68318642325564</v>
+        <v>36.26051591821114</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>40.59842224330359</v>
+        <v>36.26051592885915</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>41.69041175144081</v>
+        <v>36.26051593393579</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>-5.862710869281521</v>
+        <v>36.26051588704821</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>23.7172401803403</v>
+        <v>36.26051592588149</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>29.86963427070887</v>
+        <v>36.26051593389786</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>-16.92517843497546</v>
+        <v>36.26051589215049</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>7.378826534750019</v>
+        <v>36.26051592682606</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>12.048988462805</v>
+        <v>36.2605159404543</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>-28.78800255677756</v>
+        <v>36.26051591066761</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>5.769003992724063</v>
+        <v>36.26051594975657</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>10.9493557729458</v>
+        <v>36.26051596490085</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>-26.75857092342243</v>
+        <v>36.26051591915063</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>24.68537560290942</v>
+        <v>36.26051596166682</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>34.01449168377237</v>
+        <v>36.26051597489302</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>23.2597379307035</v>
+        <v>36.26051597337288</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>32.7959878229419</v>
+        <v>36.26051598773709</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>36.13954612504861</v>
+        <v>36.26051599391409</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>-12.43417306089676</v>
+        <v>36.26051593761134</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>34.24206284285233</v>
+        <v>36.26051598564077</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>39.36885419772817</v>
+        <v>36.26051599510555</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>-11.66368289644541</v>
+        <v>36.26051593853828</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>18.2288085740903</v>
+        <v>36.26051597518997</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>23.56377812122766</v>
+        <v>36.26051598944964</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>-25.24726739925229</v>
+        <v>36.26051595761909</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>20.76956512863556</v>
+        <v>36.26051599907699</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>24.38333333577279</v>
+        <v>36.26051601473146</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>-21.46716002318663</v>
+        <v>36.26051596805648</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>44.02145159215674</v>
+        <v>36.26051601268176</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>49.0895234639361</v>
+        <v>36.26051602578227</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>52.16546908386529</v>
+        <v>36.26051602302272</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>59.83942947127725</v>
+        <v>36.26051603635549</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>64.79318917065845</v>
+        <v>36.26051604141242</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>-3.016887893500048</v>
+        <v>36.26051598314594</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>57.58748048114258</v>
+        <v>36.26051603155326</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>61.44894853521551</v>
+        <v>36.26051604111575</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>-16.18466389782002</v>
+        <v>36.26051583452549</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>-10.90508255944227</v>
+        <v>36.2605158631631</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>-5.979107264191953</v>
+        <v>36.26051587432792</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>-27.88762222534676</v>
+        <v>36.26051585405496</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>-8.764943552120954</v>
+        <v>36.26051588844961</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>-1.902439621683847</v>
+        <v>36.26051590004698</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>-26.30033393457438</v>
+        <v>36.26051585561225</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>2.88013839176557</v>
+        <v>36.26051589169416</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>10.17521074568304</v>
+        <v>36.26051590198091</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>3.103565470070965</v>
+        <v>36.26051590931186</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>8.974292712539466</v>
+        <v>36.2605159203841</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>14.3689713688018</v>
+        <v>36.2605159262388</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>-11.28986179301364</v>
+        <v>36.26051588082972</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>2.913025308800172</v>
+        <v>36.26051591820361</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>14.13953704085421</v>
+        <v>36.26051592671988</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>-20.74355076666106</v>
+        <v>36.26051588831608</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>-6.932270175998731</v>
+        <v>36.2605159223045</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>2.00034203668439</v>
+        <v>36.26051593673937</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>-31.46375350444576</v>
+        <v>36.26051590744011</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>-13.30565718637229</v>
+        <v>36.2605159450881</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>2.868641644163269</v>
+        <v>36.26051596155411</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>-34.38452971744734</v>
+        <v>36.26051591528918</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>0.8756277887079662</v>
+        <v>36.2605159568014</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>18.89581808861852</v>
+        <v>36.26051597121604</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>-0.8430191511135519</v>
+        <v>36.26051596934622</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>9.419603883648612</v>
+        <v>36.26051598462332</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>17.29386271608669</v>
+        <v>36.26051599155084</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>-20.42478002422669</v>
+        <v>36.26051593600419</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>14.24499472251574</v>
+        <v>36.26051598322152</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>25.20895204694796</v>
+        <v>36.26051599324263</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>-6.698625199865909</v>
+        <v>36.26051593577684</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>9.230750358588786</v>
+        <v>36.26051597192559</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>21.27435900371982</v>
+        <v>36.26051598694769</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>-23.22645322229695</v>
+        <v>36.2605159552083</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>5.562673816461469</v>
+        <v>36.26051599516298</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>20.05847070979376</v>
+        <v>36.26051601225522</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>-21.02490366529821</v>
+        <v>36.26051596528412</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>25.22324106634388</v>
+        <v>36.26051600915593</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>40.79120369408319</v>
+        <v>36.260516023352</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>37.55221021542497</v>
+        <v>36.26051602023397</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>42.78628452229584</v>
+        <v>36.26051603427022</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>52.97258485665258</v>
+        <v>36.26051603994268</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>-1.760300806772712</v>
+        <v>36.26051598242461</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>42.53921597911559</v>
+        <v>36.2605160297875</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>54.13895359227328</v>
+        <v>36.26051604011053</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>-6.433193996636568</v>
+        <v>36.26051584401822</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>8.467197971866817</v>
+        <v>36.26051587347668</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>11.57339256768454</v>
+        <v>36.26051588450044</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>-19.47756628077113</v>
+        <v>36.26051586418304</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>14.4749223377427</v>
+        <v>36.2605158996511</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>18.18064869710787</v>
+        <v>36.26051591111344</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>-14.03250513453469</v>
+        <v>36.26051586624702</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>29.97777500198544</v>
+        <v>36.26051590329416</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>34.19264012015946</v>
+        <v>36.26051591342611</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>26.13736195296537</v>
+        <v>36.26051591970265</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>34.34561695797899</v>
+        <v>36.26051593086831</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>37.46925385870986</v>
+        <v>36.26051593644443</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>-3.433351718043312</v>
+        <v>36.2605158896303</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>18.64887278458161</v>
+        <v>36.26051592745322</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>26.98747958282802</v>
+        <v>36.26051593586148</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>-7.044427228537103</v>
+        <v>36.26051589839205</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>14.33852819518401</v>
+        <v>36.26051593317159</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>17.54033776418459</v>
+        <v>36.26051594732009</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>-20.30131444006146</v>
+        <v>36.26051591800499</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>9.818367353983842</v>
+        <v>36.26051595666154</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>19.47865239327579</v>
+        <v>36.26051597285854</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>-18.28352200797153</v>
+        <v>36.26051592637863</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>29.51827820250623</v>
+        <v>36.26051596879947</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>40.59209751208626</v>
+        <v>36.26051598290129</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>26.31641402958761</v>
+        <v>36.26051598027593</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>36.79116748035172</v>
+        <v>36.26051599559727</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>41.37063371717641</v>
+        <v>36.26051600225363</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>-1.894916202774425</v>
+        <v>36.26051594588731</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>39.42918575534198</v>
+        <v>36.2605159934521</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>44.71494155281016</v>
+        <v>36.26051600324683</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>-3.279100785874178</v>
+        <v>36.26051594462846</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>20.3928408269735</v>
+        <v>36.26051598148926</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>26.9600078403637</v>
+        <v>36.2605159962591</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>-20.66544625552884</v>
+        <v>36.26051596446536</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>19.56067993654338</v>
+        <v>36.26051600535656</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>27.29962838985985</v>
+        <v>36.26051602221548</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>-16.14714225968943</v>
+        <v>36.26051597494527</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>42.49488076432868</v>
+        <v>36.26051601961086</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>50.89473187991135</v>
+        <v>36.26051603357548</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>53.99345373144681</v>
+        <v>36.2605160296013</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>59.5000070375908</v>
+        <v>36.26051604370463</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>65.39338000232772</v>
+        <v>36.26051604918219</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>4.956540761880067</v>
+        <v>36.26051599098942</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>57.37362849155605</v>
+        <v>36.26051603865744</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>62.62980613080378</v>
+        <v>36.26051604880772</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>-12.33711288610139</v>
+        <v>36.26051585817012</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>8.229012246145679</v>
+        <v>36.26051588484679</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>13.43406603352262</v>
+        <v>36.26051589430754</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>-20.31282184447764</v>
+        <v>36.26051587615039</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>20.43318302842486</v>
+        <v>36.2605159086932</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>21.67717376778748</v>
+        <v>36.26051591822154</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>-14.94166939793772</v>
+        <v>36.26051587802559</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>35.29777233255962</v>
+        <v>36.26051591155314</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>38.75000103987509</v>
+        <v>36.26051592003054</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>30.3960623762781</v>
+        <v>36.26051592511713</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>39.01795649718918</v>
+        <v>36.26051593471363</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>40.36219926659403</v>
+        <v>36.26051593921967</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>-7.121883904675279</v>
+        <v>36.26051589663992</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>19.42043765196728</v>
+        <v>36.26051593083623</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>26.66804455848536</v>
+        <v>36.26051593790626</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>-9.505096585480224</v>
+        <v>36.26051590444429</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>17.74523140525101</v>
+        <v>36.26051593603244</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>21.6922561438499</v>
+        <v>36.26051594790603</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>-21.32324496938848</v>
+        <v>36.26051592175093</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>16.81654878127513</v>
+        <v>36.26051595735728</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>23.03618225926805</v>
+        <v>36.26051597064515</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>-17.18486174851627</v>
+        <v>36.26051592934776</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>37.41106017317365</v>
+        <v>36.26051596785521</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>45.74279470143946</v>
+        <v>36.26051597945354</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>32.2759482854782</v>
+        <v>36.2605159773524</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>43.42261462920942</v>
+        <v>36.26051599037476</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>46.54738080489371</v>
+        <v>36.26051599580595</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>-1.601828464152966</v>
+        <v>36.26051594495535</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>45.48086334311998</v>
+        <v>36.26051598788748</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>50.03121708569905</v>
+        <v>36.26051599611566</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>-6.220853102351228</v>
+        <v>36.26051594391228</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>24.01604314422067</v>
+        <v>36.26051597721939</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>29.61750189787523</v>
+        <v>36.26051598963876</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>-21.99344686862079</v>
+        <v>36.2605159617317</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>24.91478625853328</v>
+        <v>36.2605159993522</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>28.5795954420828</v>
+        <v>36.26051601310953</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>-16.26121816067956</v>
+        <v>36.26051597098294</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>48.97884611009162</v>
+        <v>36.26051601132097</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>53.44965254930612</v>
+        <v>36.26051602282907</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>54.85566803420151</v>
+        <v>36.26051601962659</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>62.71456856613966</v>
+        <v>36.26051603172015</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>67.11796274511843</v>
+        <v>36.26051603618414</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>3.25070687490804</v>
+        <v>36.26051598367316</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>60.48388956483087</v>
+        <v>36.26051602688119</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>65.48816365965342</v>
+        <v>36.26051603528851</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>-22.7014147187511</v>
+        <v>36.26051583975465</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>-19.21507117021871</v>
+        <v>36.26051586517551</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>-13.37226040765358</v>
+        <v>36.2605158753708</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>-29.33296824504285</v>
+        <v>36.26051585685084</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>-11.51686041844694</v>
+        <v>36.26051588779032</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>-6.923245130226171</v>
+        <v>36.26051589811018</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>-29.41448219182372</v>
+        <v>36.26051585800089</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>-3.859843755238309</v>
+        <v>36.26051589022804</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>1.690632886442316</v>
+        <v>36.26051589944539</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>2.982759513988125</v>
+        <v>36.26051590637793</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>8.859326983693489</v>
+        <v>36.26051591628852</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>12.53680653455978</v>
+        <v>36.26051592137141</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>-20.26403761858185</v>
+        <v>36.26051587996821</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>-4.291132677320149</v>
+        <v>36.26051591371965</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>1.004026127677164</v>
+        <v>36.26051592134317</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>-22.20461334800105</v>
+        <v>36.26051588830717</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>-6.55902501050047</v>
+        <v>36.2605159185975</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>4.545129997978584</v>
+        <v>36.26051593170816</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>-29.25406704599433</v>
+        <v>36.26051590560124</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>-7.726311837071236</v>
+        <v>36.26051593964094</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>6.435379052917778</v>
+        <v>36.26051595426284</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>-30.48029693929855</v>
+        <v>36.26051591278991</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>5.814855766544923</v>
+        <v>36.26051595011227</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>21.82769835364467</v>
+        <v>36.26051596299094</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>8.05784297147602</v>
+        <v>36.26051596216497</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>17.55343747801576</v>
+        <v>36.26051597557684</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>23.66089676728969</v>
+        <v>36.2605159815557</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>-20.91120789769332</v>
+        <v>36.26051593124974</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>18.26101844574037</v>
+        <v>36.2605159738901</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>24.63842800696727</v>
+        <v>36.26051598296609</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>-12.38751390262005</v>
+        <v>36.26051593187156</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>8.430168585241383</v>
+        <v>36.26051596409348</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>20.35098434468478</v>
+        <v>36.26051597784589</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>-21.41108193438075</v>
+        <v>36.26051594975628</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>13.91953725530004</v>
+        <v>36.2605159861008</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>24.76952700595847</v>
+        <v>36.26051600120346</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>-18.20463236123019</v>
+        <v>36.2605159587972</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>32.75264169036372</v>
+        <v>36.26051599823123</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>44.30807787440724</v>
+        <v>36.26051601094239</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>42.25536650547006</v>
+        <v>36.26051600876943</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>51.65614452781583</v>
+        <v>36.26051602111968</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>57.21677809384465</v>
+        <v>36.26051602606113</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>-1.809872757165046</v>
+        <v>36.26051597399683</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>50.1338856469611</v>
+        <v>36.26051601690551</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>57.25137208027078</v>
+        <v>36.26051602611979</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>-24.95451450556157</v>
+        <v>36.26051583366017</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>-20.25151765777037</v>
+        <v>36.26051586241496</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>-14.64244336308174</v>
+        <v>36.26051587350095</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>-34.80956912923738</v>
+        <v>36.26051585303284</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>-14.46760982424419</v>
+        <v>36.26051588770287</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>-8.725710243972316</v>
+        <v>36.26051589917391</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>-35.07351445177166</v>
+        <v>36.26051585445531</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>-5.374978710858393</v>
+        <v>36.26051589067931</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>1.837514321658489</v>
+        <v>36.26051590090581</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>-7.175189856032524</v>
+        <v>36.26051590791081</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>-0.4629632305834548</v>
+        <v>36.26051591900968</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>5.093193291506747</v>
+        <v>36.26051592465407</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>-26.17611696005171</v>
+        <v>36.26051587868891</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>-13.39332701507436</v>
+        <v>36.26051591611067</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>-5.286023522833695</v>
+        <v>36.26051592457862</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>-34.62161456333859</v>
+        <v>36.2605158856841</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>-25.28262263883176</v>
+        <v>36.26051591968044</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>-17.33016811093235</v>
+        <v>36.26051593388835</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>-43.21719190015684</v>
+        <v>36.26051590457174</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>-28.08927580611707</v>
+        <v>36.26051594237763</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>-15.07369299874988</v>
+        <v>36.26051595854437</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>-47.58545265375357</v>
+        <v>36.26051591221057</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>-15.73784510459861</v>
+        <v>36.26051595374054</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>0.4073431477937888</v>
+        <v>36.26051596795875</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>-16.72452624591573</v>
+        <v>36.26051596623302</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>-6.719471110018503</v>
+        <v>36.26051598146621</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>1.757165041097167</v>
+        <v>36.26051598829999</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>-36.40249810171191</v>
+        <v>36.26051593255227</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>-6.782722921025893</v>
+        <v>36.26051597954202</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>0.886801860207953</v>
+        <v>36.2605159894733</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>-25.03301191537865</v>
+        <v>36.2605159328967</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>-11.68314617469245</v>
+        <v>36.26051596897914</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>1.924016905870335</v>
+        <v>36.26051598392107</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>-35.73929260837522</v>
+        <v>36.26051595220551</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>-9.991733752978057</v>
+        <v>36.26051599229685</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>4.875609597871431</v>
+        <v>36.26051600922757</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>-36.87783335222398</v>
+        <v>36.26051596201241</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>7.085379377571034</v>
+        <v>36.26051600578852</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>23.33380134472367</v>
+        <v>36.26051602000337</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>18.43104900123586</v>
+        <v>36.26051601675814</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>24.43476581932292</v>
+        <v>36.26051603093035</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>35.99119790467925</v>
+        <v>36.26051603656261</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>-24.67160585879612</v>
+        <v>36.26051597878951</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>18.29180520982792</v>
+        <v>36.26051602601565</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>27.86177973313541</v>
+        <v>36.26051603635953</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>-14.07894999797536</v>
+        <v>36.26051585795527</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>4.991453309783871</v>
+        <v>36.26051588573944</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>13.01956176877731</v>
+        <v>36.26051589630066</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>-20.33267153697091</v>
+        <v>36.26051587799051</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>21.42459479941318</v>
+        <v>36.2605159122099</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>23.7557441372149</v>
+        <v>36.26051592258899</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>-13.93370707045332</v>
+        <v>36.26051588035959</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>36.60102162355408</v>
+        <v>36.26051591559785</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>41.33121662339791</v>
+        <v>36.26051592492023</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>37.29558912921454</v>
+        <v>36.26051593021177</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>47.54280632787142</v>
+        <v>36.26051594045781</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>46.55272564612214</v>
+        <v>36.26051594531394</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>-3.938979617326432</v>
+        <v>36.26051590061576</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>27.60083694786799</v>
+        <v>36.26051593694166</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>38.37371458947241</v>
+        <v>36.26051594484176</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>-22.17776422029335</v>
+        <v>36.26051590287275</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>1.125106206555898</v>
+        <v>36.26051593561699</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>6.136208707909827</v>
+        <v>36.26051594870543</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>-31.58339057453484</v>
+        <v>36.26051592210803</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>4.138089111000408</v>
+        <v>36.26051595929916</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>8.149160683685896</v>
+        <v>36.26051597363779</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>-30.72537389177176</v>
+        <v>36.26051593035615</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>21.11484478710029</v>
+        <v>36.26051597064883</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>28.69399998947485</v>
+        <v>36.26051598325486</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>19.66791558377056</v>
+        <v>36.26051598110655</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>28.92408684522635</v>
+        <v>36.26051599500281</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>29.77309753030887</v>
+        <v>36.26051600078672</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>-17.95709277559305</v>
+        <v>36.26051594754337</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>29.22886715927091</v>
+        <v>36.26051599272917</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>33.14559212344128</v>
+        <v>36.26051600174122</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>-15.50316160919397</v>
+        <v>36.26051594552692</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>12.25330823502533</v>
+        <v>36.26051598010636</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>19.86822950379848</v>
+        <v>36.26051599384118</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>-25.55712220091268</v>
+        <v>36.26051596526277</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>21.42963168877708</v>
+        <v>36.26051600467209</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>24.75578215138693</v>
+        <v>36.26051601949847</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>-22.7222084350049</v>
+        <v>36.2605159752562</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>42.02408627462396</v>
+        <v>36.2605160175132</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>47.03724891517359</v>
+        <v>36.2605160300289</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>47.61500705560039</v>
+        <v>36.26051602665449</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>56.21287585283098</v>
+        <v>36.26051603942608</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>58.73929326041661</v>
+        <v>36.26051604419693</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>-6.357528603521033</v>
+        <v>36.26051598923037</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>53.57000449092521</v>
+        <v>36.26051603467862</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>59.07133506962062</v>
+        <v>36.26051604384028</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>-21.60254149746336</v>
+        <v>36.26051583491282</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>-18.4618697381572</v>
+        <v>36.2605158602417</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>-11.97217580626562</v>
+        <v>36.26051587043848</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>-28.63260396933462</v>
+        <v>36.26051585099077</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>-15.29283825820483</v>
+        <v>36.26051588162316</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>-10.04239645032672</v>
+        <v>36.26051589210408</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>-30.40039367133325</v>
+        <v>36.26051585200207</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>-9.042032663066891</v>
+        <v>36.26051588403202</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>-1.24028935459026</v>
+        <v>36.26051589334749</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>-7.019045225478763</v>
+        <v>36.2605159002204</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>-1.676294707102628</v>
+        <v>36.26051590982664</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>3.440307112929975</v>
+        <v>36.26051591478404</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>-23.98827508133348</v>
+        <v>36.26051587377667</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>-11.65266448688393</v>
+        <v>36.26051590781951</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>-6.185207201632984</v>
+        <v>36.26051591540822</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>-27.70321529304128</v>
+        <v>36.26051588013998</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>-15.81394187550611</v>
+        <v>36.2605159100906</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>-2.664063670874491</v>
+        <v>36.26051592319906</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>-31.50995163464311</v>
+        <v>36.26051589604212</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>-18.49163165385557</v>
+        <v>36.26051592946036</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>-2.687750702166312</v>
+        <v>36.26051594419696</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>-34.90290936089992</v>
+        <v>36.26051590304613</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>-7.410679204193031</v>
+        <v>36.26051593989499</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>12.43018887095799</v>
+        <v>36.26051595292352</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>-6.449938255351832</v>
+        <v>36.26051595228219</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>1.301976098108533</v>
+        <v>36.26051596529091</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>11.40206123099788</v>
+        <v>36.2605159714256</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>-29.80329399963705</v>
+        <v>36.26051592153978</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>1.951467239010938</v>
+        <v>36.26051596391056</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>12.7700634357881</v>
+        <v>36.26051597321931</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>-15.1630838303697</v>
+        <v>36.26051592420595</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>1.187469886032794</v>
+        <v>36.26051595603444</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>16.26520186844497</v>
+        <v>36.26051597000479</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>-23.01166614053536</v>
+        <v>36.26051594075516</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>0.9662891003665308</v>
+        <v>36.26051597635975</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>15.42359591536193</v>
+        <v>36.26051599195713</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>-22.65360156818215</v>
+        <v>36.26051594959267</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>17.28622090258103</v>
+        <v>36.26051598845724</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>34.59259952277295</v>
+        <v>36.26051600155763</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>27.8137014017655</v>
+        <v>36.26051599954922</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>34.6305433166464</v>
+        <v>36.26051601171211</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>47.29893104021825</v>
+        <v>36.26051601680687</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>-11.35764837854799</v>
+        <v>36.26051596483823</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>31.13289717878902</v>
+        <v>36.26051600774058</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>43.10564173001789</v>
+        <v>36.26051601723865</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>-26.84578401761599</v>
+        <v>36.26051584109789</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>-15.48532645851627</v>
+        <v>36.26051586890522</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>-10.4292772121169</v>
+        <v>36.26051587902415</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>-37.18368007372835</v>
+        <v>36.26051585845828</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>-8.952192618166912</v>
+        <v>36.26051589223086</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>-7.221392295306963</v>
+        <v>36.26051590249328</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>-35.65775536935423</v>
+        <v>36.26051585998394</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>2.296190176490036</v>
+        <v>36.26051589497674</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>6.017866114829765</v>
+        <v>36.26051590402738</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>1.574678620556078</v>
+        <v>36.2605159105313</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>8.521445638328288</v>
+        <v>36.2605159205322</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>10.09603436111815</v>
+        <v>36.26051592530543</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>-25.27920623992317</v>
+        <v>36.26051588116039</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>-5.757905041924865</v>
+        <v>36.26051591774535</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>-1.465930381338062</v>
+        <v>36.26051592516801</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>-18.74378594694417</v>
+        <v>36.26051588998286</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>1.501954918486256</v>
+        <v>36.26051592295563</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>5.512924711289166</v>
+        <v>36.26051593574228</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>-29.67912798867239</v>
+        <v>36.26051590700835</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>-0.03174326877323352</v>
+        <v>36.26051594398439</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>5.078606657862998</v>
+        <v>36.26051595836926</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>-29.35757165844064</v>
+        <v>36.26051591479836</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>15.82320299063528</v>
+        <v>36.26051595512893</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>24.84758017709045</v>
+        <v>36.26051596759611</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>15.07917211306297</v>
+        <v>36.26051596653997</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>23.33706810385489</v>
+        <v>36.26051598007081</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>27.26391108454576</v>
+        <v>36.26051598594295</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>-13.8595077066057</v>
+        <v>36.26051593254424</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>25.81201889703652</v>
+        <v>36.26051597806797</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>30.02075403669925</v>
+        <v>36.26051598695963</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>-8.702001984583944</v>
+        <v>36.26051593432138</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>16.88667545681147</v>
+        <v>36.26051596927346</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>22.97015182929442</v>
+        <v>36.26051598259131</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>-21.6274548891916</v>
+        <v>36.26051595188769</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>19.25873344953478</v>
+        <v>36.26051599119508</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>23.37321303198087</v>
+        <v>36.26051600601464</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>-18.94833769754229</v>
+        <v>36.26051596153774</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>39.89352566040215</v>
+        <v>36.26051600394109</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>45.81489845866827</v>
+        <v>36.26051601626332</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>49.76898931533236</v>
+        <v>36.26051601398758</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>55.76133699994287</v>
+        <v>36.26051602663411</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>60.68340975652379</v>
+        <v>36.26051603142752</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>0.1260032965609952</v>
+        <v>36.26051597602802</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>53.8182394072565</v>
+        <v>36.26051602201395</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>56.83596530276163</v>
+        <v>36.2605160310034</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>-18.35643734728914</v>
+        <v>36.26051582945865</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>-15.31498900416825</v>
+        <v>36.26051585622652</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>-9.60657420887263</v>
+        <v>36.26051586662658</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>-24.79634867016722</v>
+        <v>36.26051584619053</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>-10.40408836836598</v>
+        <v>36.26051587872048</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>-6.137010590837995</v>
+        <v>36.26051588913997</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>-26.47809974968219</v>
+        <v>36.26051584720789</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>-3.065690230037951</v>
+        <v>36.26051588108375</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>3.250594049015049</v>
+        <v>36.26051589042471</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>-3.12682405010051</v>
+        <v>36.26051589804842</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>3.745648265383014</v>
+        <v>36.26051590793097</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>7.342113719974517</v>
+        <v>36.2605159130393</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>-18.18530636248721</v>
+        <v>36.26051587013986</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>-8.478251659249125</v>
+        <v>36.26051590578434</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>-2.130810332064236</v>
+        <v>36.26051591348912</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>-31.31048957962749</v>
+        <v>36.26051587490277</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>-23.27505068421286</v>
+        <v>36.26051590655141</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>-13.05855998101003</v>
+        <v>36.26051591974905</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>-36.53395536410658</v>
+        <v>36.2605158912271</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>-25.74033152237401</v>
+        <v>36.26051592670233</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>-13.77230029901993</v>
+        <v>36.26051594132653</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>-41.99628471751101</v>
+        <v>36.26051589831749</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>-16.20540441952986</v>
+        <v>36.26051593723952</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>0.7969590627414291</v>
+        <v>36.26051595018828</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>-16.68889749214397</v>
+        <v>36.26051595027381</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>-8.262413528023409</v>
+        <v>36.26051596363824</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>-0.09570462911150202</v>
+        <v>36.26051596990444</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>-32.83548902823386</v>
+        <v>36.26051591795452</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>-7.401927122876806</v>
+        <v>36.26051596220891</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>1.285904498522136</v>
+        <v>36.26051597152003</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>-15.28830902525026</v>
+        <v>36.26051592163184</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>-1.019599849629053</v>
+        <v>36.26051595529417</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>8.690182396249238</v>
+        <v>36.26051596912117</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>-26.37607296831382</v>
+        <v>36.26051593878648</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>-2.432282915723412</v>
+        <v>36.26051597659838</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>5.811283037302825</v>
+        <v>36.26051599171869</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>-27.59575189523961</v>
+        <v>36.26051594808062</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>13.30231223729013</v>
+        <v>36.26051598922985</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>25.04717379155637</v>
+        <v>36.26051600198606</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>20.92759008510566</v>
+        <v>36.26051600107245</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>28.03449924164147</v>
+        <v>36.2605160135288</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>37.27265380412458</v>
+        <v>36.26051601860085</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>-14.3802805346165</v>
+        <v>36.26051596447513</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>23.90290920607034</v>
+        <v>36.26051600932291</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>30.91727868659271</v>
+        <v>36.26051601866383</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>-21.66761539905158</v>
+        <v>36.26051582826747</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>-21.13503055482138</v>
+        <v>36.26051585365252</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>-18.68571642767706</v>
+        <v>36.26051586336827</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-28.51573108550396</v>
+        <v>36.26051584357491</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>-19.178345461373</v>
+        <v>36.26051587436913</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>-17.49789090620181</v>
+        <v>36.26051588418441</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>-33.76660506895805</v>
+        <v>36.26051584399684</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>-15.90945346524201</v>
+        <v>36.2605158760388</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>-12.78996172396749</v>
+        <v>36.26051588477538</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>-18.29817727164514</v>
+        <v>36.26051589269109</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>-14.17515546665881</v>
+        <v>36.26051590206082</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>-10.70844230912078</v>
+        <v>36.26051590681513</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>-23.7930322627877</v>
+        <v>36.26051586639726</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>-20.44564466588804</v>
+        <v>36.26051590012848</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>-15.73756836851785</v>
+        <v>36.26051590731144</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>-32.85994805393508</v>
+        <v>36.2605158714834</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>-28.55653738590372</v>
+        <v>36.26051590152488</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>-23.81994536018187</v>
+        <v>36.26051591387441</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-39.1663405974619</v>
+        <v>36.26051588639928</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>-31.91267741242924</v>
+        <v>36.26051592002087</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>-25.65673386081799</v>
+        <v>36.26051593381517</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>-48.18471629550704</v>
+        <v>36.260515892543</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>-28.37877549802757</v>
+        <v>36.26051592939604</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>-16.55838196888868</v>
+        <v>36.26051594150708</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>-29.74195613745166</v>
+        <v>36.26051594235509</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>-24.30418057213172</v>
+        <v>36.26051595504068</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>-17.70523077495505</v>
+        <v>36.26051596087373</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>-37.38449601164556</v>
+        <v>36.26051591176588</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>-20.63706496253651</v>
+        <v>36.26051595368114</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>-14.15644634345887</v>
+        <v>36.2605159623708</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>-14.12261600925864</v>
+        <v>36.26051591532333</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>-4.284967292946611</v>
+        <v>36.26051594723155</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>0.8616877746377796</v>
+        <v>36.26051596016183</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>-26.42775770125184</v>
+        <v>36.26051593106632</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>-8.400134946255484</v>
+        <v>36.26051596685026</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>-3.962106760839667</v>
+        <v>36.26051598114535</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>-30.56346817260653</v>
+        <v>36.26051593921991</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>2.68789923613777</v>
+        <v>36.260515978098</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>10.44019523939504</v>
+        <v>36.26051599007631</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>11.08229730982039</v>
+        <v>36.26051599012715</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>14.92027015632669</v>
+        <v>36.26051600200977</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>22.55970548811398</v>
+        <v>36.26051600675828</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>-16.0963206400323</v>
+        <v>36.26051595540527</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>12.47815010129665</v>
+        <v>36.26051599781376</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>17.75280956737219</v>
+        <v>36.26051600662392</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>-9.729003488981945</v>
+        <v>36.26051583532567</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>-1.935343886834488</v>
+        <v>36.26051586424647</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>3.069527795282117</v>
+        <v>36.26051587574064</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>-24.4070897760546</v>
+        <v>36.26051585512105</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>-1.837373232853629</v>
+        <v>36.2605158898666</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>3.269824474567688</v>
+        <v>36.26051590167023</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>-19.43579612829935</v>
+        <v>36.26051585718934</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>13.930058566407</v>
+        <v>36.26051589375712</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>19.89249529111209</v>
+        <v>36.26051590431617</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>16.42571371506651</v>
+        <v>36.26051591161524</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>22.85297850235644</v>
+        <v>36.26051592276939</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>26.3919553327844</v>
+        <v>36.26051592861789</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>-5.552995582557656</v>
+        <v>36.26051588229031</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>12.13228440774315</v>
+        <v>36.26051592032205</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>21.87957541740962</v>
+        <v>36.26051592900604</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>-22.56205401681355</v>
+        <v>36.26051588697108</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>-9.755636705628199</v>
+        <v>36.26051592117311</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>-1.914885733117899</v>
+        <v>36.26051593579778</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>-36.50742390992327</v>
+        <v>36.26051590638992</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>-20.21780012497221</v>
+        <v>36.26051594430253</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>-6.991718223056196</v>
+        <v>36.26051596087407</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>-37.33594565159542</v>
+        <v>36.26051591464493</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>-2.523428590049939</v>
+        <v>36.26051595656781</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>12.30725767303393</v>
+        <v>36.26051597114725</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>-0.8798725770572489</v>
+        <v>36.26051596971737</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>7.988257401489278</v>
+        <v>36.2605159850337</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>13.02609979227795</v>
+        <v>36.26051599190161</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>-24.28879377295633</v>
+        <v>36.26051593579204</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>10.71679560084685</v>
+        <v>36.26051598359967</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>18.84964876557306</v>
+        <v>36.26051599376176</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>-9.795461634614732</v>
+        <v>36.26051593588945</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>6.498736943091107</v>
+        <v>36.26051597227548</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>17.73493894382781</v>
+        <v>36.26051598761988</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>-26.87557568817197</v>
+        <v>36.26051595559812</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>1.969140920780617</v>
+        <v>36.26051599586563</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>13.4486089711991</v>
+        <v>36.26051601317042</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>-23.03925000658548</v>
+        <v>36.26051596615507</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>24.66808495163476</v>
+        <v>36.26051601046482</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>37.11056941360809</v>
+        <v>36.26051602490079</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>39.14966363583935</v>
+        <v>36.26051602195877</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>44.66652650838152</v>
+        <v>36.26051603602794</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>51.96912140919443</v>
+        <v>36.2605160416926</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>-5.316656253374212</v>
+        <v>36.26051598360938</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>41.68455882039748</v>
+        <v>36.26051603151841</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>50.08262992565845</v>
+        <v>36.26051604198921</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>-11.72388428999421</v>
+        <v>36.26051584359724</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>5.236991020872964</v>
+        <v>36.26051587119818</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>12.60335535221741</v>
+        <v>36.26051588182938</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>-16.39407948212618</v>
+        <v>36.26051586157188</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>15.19522799102325</v>
+        <v>36.2605158951195</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>19.71594814319954</v>
+        <v>36.26051590585907</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>-13.9566919515898</v>
+        <v>36.26051586343344</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>27.44545544462542</v>
+        <v>36.26051589832836</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>35.12373339475482</v>
+        <v>36.26051590778933</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>29.16321707629334</v>
+        <v>36.26051591400126</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>37.28352803509497</v>
+        <v>36.26051592410459</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>40.17622884544573</v>
+        <v>36.26051592904943</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>-4.542366760292907</v>
+        <v>36.26051588462404</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>23.05973038624389</v>
+        <v>36.26051592160241</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>30.68244047034028</v>
+        <v>36.26051592930558</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>-24.46221334189121</v>
+        <v>36.26051588788168</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>-2.636916886887896</v>
+        <v>36.26051592026443</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>6.624840475661177</v>
+        <v>36.26051593372515</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>-30.41713975981619</v>
+        <v>36.26051590494885</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>-4.23076056306914</v>
+        <v>36.26051594119178</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>7.103712854733423</v>
+        <v>36.26051595624607</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>-32.00519436816567</v>
+        <v>36.26051591288191</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>10.70688917545157</v>
+        <v>36.26051595270528</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>26.70324292530576</v>
+        <v>36.26051596574727</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>12.4161878725169</v>
+        <v>36.26051596445525</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>21.2471568904492</v>
+        <v>36.26051597806996</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>27.27683620776414</v>
+        <v>36.26051598419399</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>-20.93787011457966</v>
+        <v>36.26051593091575</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>21.77432447013377</v>
+        <v>36.26051597634446</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>32.26033970362413</v>
+        <v>36.26051598564374</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>-18.43591863336169</v>
+        <v>36.26051593230699</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>7.721201723993225</v>
+        <v>36.26051596661362</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>17.98205190266965</v>
+        <v>36.26051598069883</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>-25.28625170951013</v>
+        <v>36.2605159500676</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>10.87457774767645</v>
+        <v>36.26051598856629</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>20.90145266957039</v>
+        <v>36.26051600420263</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>-25.63169423861599</v>
+        <v>36.26051595987202</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>29.19982044948826</v>
+        <v>36.26051600173715</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>41.86029253420071</v>
+        <v>36.26051601468351</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>41.30323034759988</v>
+        <v>36.26051601231572</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>49.26971326279477</v>
+        <v>36.26051602497164</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>57.96189469608777</v>
+        <v>36.26051602998024</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>-9.528975086236763</v>
+        <v>36.26051597466936</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>44.85596917498732</v>
+        <v>36.26051602055988</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>54.14709304632215</v>
+        <v>36.26051602996441</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>-15.16410810329253</v>
+        <v>36.26051584195267</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>0.1218872534929076</v>
+        <v>36.26051587246253</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>5.832203021384284</v>
+        <v>36.2605158841646</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>-24.27849192850925</v>
+        <v>36.26051586349777</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>10.85707269411167</v>
+        <v>36.26051590035128</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>15.6198191867459</v>
+        <v>36.26051591242615</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>-19.82257196784506</v>
+        <v>36.26051586579024</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>25.32117959593067</v>
+        <v>36.26051590428142</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>31.39279840146165</v>
+        <v>36.26051591495568</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>23.60499615575555</v>
+        <v>36.26051592136204</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>32.05680478052201</v>
+        <v>36.26051593303318</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>34.96303101708985</v>
+        <v>36.26051593879868</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>-10.01793806410469</v>
+        <v>36.26051589000829</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>15.75279808930156</v>
+        <v>36.26051592968082</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>28.20829795156055</v>
+        <v>36.26051593865436</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>-23.50612179214935</v>
+        <v>36.26051589634577</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>-1.607188682444502</v>
+        <v>36.26051593239735</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>4.329821719791916</v>
+        <v>36.26051594733617</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>-33.82425821237404</v>
+        <v>36.26051591706915</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>-3.489267886236831</v>
+        <v>36.26051595715076</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>7.231443930278388</v>
+        <v>36.26051597419815</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>-35.42102090793278</v>
+        <v>36.26051592588305</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>12.989996846137</v>
+        <v>36.26051596995968</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>26.06188833011828</v>
+        <v>36.26051598475586</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>11.08528055891085</v>
+        <v>36.26051598192707</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>22.44470153320101</v>
+        <v>36.26051599797539</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>26.93541681313602</v>
+        <v>36.26051600483888</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>-23.01487742291373</v>
+        <v>36.26051594599171</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>22.62940997982349</v>
+        <v>36.26051599584179</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>30.89641631024531</v>
+        <v>36.26051600621371</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>-16.72104864742044</v>
+        <v>36.26051594479988</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>8.187573209912514</v>
+        <v>36.26051598308051</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>17.07591522535969</v>
+        <v>36.26051599859517</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>-28.98923224475795</v>
+        <v>36.26051596580831</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>12.08320500246555</v>
+        <v>36.26051600835807</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>21.42244534979736</v>
+        <v>36.26051602595057</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>-27.74258309227894</v>
+        <v>36.26051597677652</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>32.47322515017705</v>
+        <v>36.26051602324117</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>42.77428904748929</v>
+        <v>36.26051603780616</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>43.75447813388757</v>
+        <v>36.26051603357877</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>51.28056300009651</v>
+        <v>36.26051604826118</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>57.97946157868726</v>
+        <v>36.26051605390588</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>-10.85274156237964</v>
+        <v>36.26051599313575</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>46.38976528363718</v>
+        <v>36.26051604314839</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>55.09611667028037</v>
+        <v>36.26051605378467</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>-7.586164589741095</v>
+        <v>36.26051584376172</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>3.550278933185961</v>
+        <v>36.26051587266853</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>8.008794221661873</v>
+        <v>36.26051588382479</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>-15.86893608418059</v>
+        <v>36.26051586461849</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>13.62525408996297</v>
+        <v>36.2605158993393</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>19.20224508700289</v>
+        <v>36.26051591093572</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>-13.99920282888098</v>
+        <v>36.26051586639505</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>25.86167891337688</v>
+        <v>36.26051590286193</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>31.25719901535411</v>
+        <v>36.26051591313404</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>24.21077180221927</v>
+        <v>36.26051591956043</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>31.09784534908262</v>
+        <v>36.26051593077755</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>35.33317639356378</v>
+        <v>36.26051593645637</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>-2.76528649865196</v>
+        <v>36.26051589021309</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>17.36685771914324</v>
+        <v>36.26051592777615</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>28.72437158076469</v>
+        <v>36.26051593639473</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>-16.07099709258252</v>
+        <v>36.26051589697956</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>1.148841083391787</v>
+        <v>36.26051593111557</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>7.074783944934893</v>
+        <v>36.26051594548086</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>-23.31952785700922</v>
+        <v>36.26051591743786</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>1.177341462868149</v>
+        <v>36.26051595515403</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>14.53415036269906</v>
+        <v>36.2605159715889</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>-27.85156886006214</v>
+        <v>36.26051592517235</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>14.97133510176883</v>
+        <v>36.26051596689359</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>28.58358038488305</v>
+        <v>36.26051598123141</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>12.48525383207422</v>
+        <v>36.26051597851645</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>22.14795430091458</v>
+        <v>36.26051599395793</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>27.99863035677333</v>
+        <v>36.2605160007182</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>-15.11942258154228</v>
+        <v>36.26051594485198</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>23.54798173993256</v>
+        <v>36.26051599207539</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>31.77758385101828</v>
+        <v>36.26051600208784</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>-8.623454995114763</v>
+        <v>36.2605159434538</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>10.40170524160715</v>
+        <v>36.26051597967449</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>19.75016070287248</v>
+        <v>36.26051599464046</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>-18.60147619083457</v>
+        <v>36.2605159640315</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>16.18040455556116</v>
+        <v>36.26051600397794</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>27.54231684819817</v>
+        <v>36.26051602103115</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>-19.50765043424534</v>
+        <v>36.26051597393742</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>34.18352094884855</v>
+        <v>36.26051601791472</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>45.32175317755539</v>
+        <v>36.26051603206675</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>47.61392819223361</v>
+        <v>36.26051602806951</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>51.93464121744758</v>
+        <v>36.26051604220563</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>59.80180394364938</v>
+        <v>36.26051604775732</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>-2.05230173750742</v>
+        <v>36.26051599006041</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>47.57565268208306</v>
+        <v>36.2605160373274</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>56.53256343912075</v>
+        <v>36.26051604768214</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>-17.88743032074998</v>
+        <v>36.26051584165319</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>0.6008974050011275</v>
+        <v>36.26051587141564</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>6.071807855127691</v>
+        <v>36.26051588250473</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>-24.40084771389163</v>
+        <v>36.2605158616707</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>11.06678675366782</v>
+        <v>36.26051589768338</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>14.51287756105854</v>
+        <v>36.26051590914402</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>-21.62533344797721</v>
+        <v>36.26051586394883</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>23.88178955157717</v>
+        <v>36.26051590147699</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>30.26481095003877</v>
+        <v>36.26051591152999</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>26.61050629919822</v>
+        <v>36.26051591799482</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>35.22879323858808</v>
+        <v>36.26051592897104</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>37.27378374121639</v>
+        <v>36.26051593431115</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>-15.72677744111298</v>
+        <v>36.26051588658747</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>17.58612739182019</v>
+        <v>36.26051592604446</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>24.48190744703321</v>
+        <v>36.26051593437199</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>-27.66303990333973</v>
+        <v>36.2605158901714</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>-3.73206818581432</v>
+        <v>36.26051592515658</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>1.155534827664432</v>
+        <v>36.26051593917271</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>-34.84950539886417</v>
+        <v>36.26051590926912</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>-4.796901272506901</v>
+        <v>36.26051594835965</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>2.284649658166426</v>
+        <v>36.26051596422249</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>-36.94963956706395</v>
+        <v>36.26051591792555</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>10.13621921404286</v>
+        <v>36.26051596077833</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>21.76680003206027</v>
+        <v>36.26051597460213</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>11.38781589379024</v>
+        <v>36.2605159728734</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>21.47003693597819</v>
+        <v>36.26051598773871</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>23.71462154769217</v>
+        <v>36.26051599426413</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>-29.41726372870642</v>
+        <v>36.26051593705164</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>21.05012025830362</v>
+        <v>36.26051598570355</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>27.29156142013906</v>
+        <v>36.26051599563905</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>-21.69626630740262</v>
+        <v>36.26051593771962</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>5.871994721113911</v>
+        <v>36.2605159747654</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>13.60240670795882</v>
+        <v>36.26051598957391</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>-29.80556007222673</v>
+        <v>36.26051595731084</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>9.274183897179746</v>
+        <v>36.26051599878084</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>16.55775305988536</v>
+        <v>36.26051601541131</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>-30.74859666998434</v>
+        <v>36.26051596794984</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>27.98575921719493</v>
+        <v>36.26051601298578</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>37.80224148983026</v>
+        <v>36.2605160268004</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>41.01394057327747</v>
+        <v>36.26051602365537</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>48.52482162332757</v>
+        <v>36.26051603742525</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>54.67707705248137</v>
+        <v>36.26051604278836</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>-19.01721106681333</v>
+        <v>36.26051598351145</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>43.3702939306764</v>
+        <v>36.26051603259118</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>50.63706371255783</v>
+        <v>36.26051604269382</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>-15.17494846266692</v>
+        <v>36.26051583628881</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>-11.70082884888897</v>
+        <v>36.26051586244239</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>-8.136674487557393</v>
+        <v>36.26051587292066</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>-26.46767872781722</v>
+        <v>36.26051585367424</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>-10.1905063958329</v>
+        <v>36.26051588516651</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>-6.124060479088968</v>
+        <v>36.26051589607159</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>-25.90358992065929</v>
+        <v>36.2605158548125</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>-1.460508865500628</v>
+        <v>36.26051588782117</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>4.81881565537871</v>
+        <v>36.26051589750505</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>-0.08885522158219317</v>
+        <v>36.26051590439177</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>4.714635564085398</v>
+        <v>36.26051591460696</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>10.41618751774121</v>
+        <v>36.26051592007128</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>-17.31046946731209</v>
+        <v>36.26051587772914</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>-5.673051750673764</v>
+        <v>36.26051591226646</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>1.742755413591482</v>
+        <v>36.26051592030301</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>-22.54501971152261</v>
+        <v>36.26051588665541</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>-8.612828731930662</v>
+        <v>36.26051591774375</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>2.989917925835567</v>
+        <v>36.26051593132014</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>-29.95806259311257</v>
+        <v>36.2605159041642</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>-12.29145442187727</v>
+        <v>36.26051593870619</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>4.627087877956228</v>
+        <v>36.26051595421295</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>-32.00690411604253</v>
+        <v>36.26051591136014</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>1.089071700899908</v>
+        <v>36.26051594945319</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>21.35011054873195</v>
+        <v>36.26051596307641</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>1.005800286173418</v>
+        <v>36.26051596168228</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>10.63137377009008</v>
+        <v>36.26051597575253</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>20.65939465059489</v>
+        <v>36.26051598224425</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>-23.68230437973416</v>
+        <v>36.26051593056589</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>11.27434151308402</v>
+        <v>36.26051597424273</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>23.90707586359878</v>
+        <v>36.26051598386803</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>-10.69497638102224</v>
+        <v>36.26051593155396</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>7.347045496228347</v>
+        <v>36.26051596470754</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>20.02987521274007</v>
+        <v>36.26051597893824</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>-23.06468718867859</v>
+        <v>36.26051594929724</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>6.554936930461501</v>
+        <v>36.26051598611878</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>20.9026700825873</v>
+        <v>36.26051600226217</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>-20.31899868138727</v>
+        <v>36.2605159585028</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>25.08240440231466</v>
+        <v>36.26051599881765</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>41.68967947929033</v>
+        <v>36.26051601229428</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>35.45513957726864</v>
+        <v>36.26051600940619</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>42.05796005317139</v>
+        <v>36.26051602241779</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>53.68413549708163</v>
+        <v>36.26051602774562</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>-7.507351880314161</v>
+        <v>36.26051597415265</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>37.7704508691285</v>
+        <v>36.26051601805226</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>50.48794532022124</v>
+        <v>36.2605160279611</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>-13.5564541806982</v>
+        <v>36.26051584179476</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>-4.011640901489507</v>
+        <v>36.26051587041385</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>1.363491999356533</v>
+        <v>36.26051588162717</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>-23.75590107076438</v>
+        <v>36.26051586233901</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>2.915118122442586</v>
+        <v>36.26051589671389</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>9.706923385428734</v>
+        <v>36.26051590840081</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>-21.61596569817532</v>
+        <v>36.26051586409756</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>15.39989308261178</v>
+        <v>36.26051590023342</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>22.05161416175644</v>
+        <v>36.26051591057774</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>14.38249894707448</v>
+        <v>36.26051591715048</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>21.40182557856958</v>
+        <v>36.26051592837006</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>26.92550020267699</v>
+        <v>36.2605159341022</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>-10.60348786573174</v>
+        <v>36.26051588812123</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>8.783674178315064</v>
+        <v>36.26051592550382</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>20.89657686011178</v>
+        <v>36.26051593413536</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>-23.92540257397212</v>
+        <v>36.26051589463987</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>-7.851989060307929</v>
+        <v>36.26051592843694</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>0.5956534089321082</v>
+        <v>36.26051594294236</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>-32.61810857802593</v>
+        <v>36.26051591479519</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>-10.45306135902228</v>
+        <v>36.26051595215574</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>5.667937377024437</v>
+        <v>36.26051596877885</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>-36.40758938427138</v>
+        <v>36.26051592252898</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>3.81731919391283</v>
+        <v>36.26051596387715</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>20.37656131725169</v>
+        <v>36.26051597837454</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>2.085366009200836</v>
+        <v>36.2605159757663</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>12.16445741972792</v>
+        <v>36.26051599121236</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>19.88788668652992</v>
+        <v>36.26051599804254</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>-24.78933652051962</v>
+        <v>36.26051594243641</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>13.49616182418194</v>
+        <v>36.26051598944356</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>24.06905723393113</v>
+        <v>36.26051599954197</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>-15.27739221497066</v>
+        <v>36.26051594120526</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>2.821662588405687</v>
+        <v>36.26051597709238</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>14.09220098937348</v>
+        <v>36.26051599221563</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>-27.11602863525311</v>
+        <v>36.26051596150253</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>5.739517277292428</v>
+        <v>36.26051600110483</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>19.21582318013915</v>
+        <v>36.26051601834922</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>-27.00626251434083</v>
+        <v>36.26051597141898</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>24.42531897774473</v>
+        <v>36.26051601504016</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>37.99261080125955</v>
+        <v>36.26051602934792</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>38.19839170640188</v>
+        <v>36.26051602545467</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>43.09966431360706</v>
+        <v>36.26051603958975</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>52.46379385978029</v>
+        <v>36.26051604519844</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>-10.52187825959692</v>
+        <v>36.26051598774311</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>38.51161460300431</v>
+        <v>36.2605160347894</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>49.60924974208407</v>
+        <v>36.26051604524123</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>-9.17026914611472</v>
+        <v>36.26051585034121</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>5.672645211323768</v>
+        <v>36.26051587786861</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>8.962681808493191</v>
+        <v>36.26051588817607</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>-16.76237787161175</v>
+        <v>36.26051587010016</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>20.20039929843415</v>
+        <v>36.26051590364435</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>20.6595550023026</v>
+        <v>36.26051591408629</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>-11.44944049515599</v>
+        <v>36.26051587201145</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>32.79705036476032</v>
+        <v>36.26051590679236</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>35.16932061969388</v>
+        <v>36.26051591614655</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>31.97140920419121</v>
+        <v>36.26051592232052</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>38.49194426230024</v>
+        <v>36.2605159325925</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>40.54141030930622</v>
+        <v>36.26051593768702</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>-0.6567547165634195</v>
+        <v>36.26051589368883</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>23.06200497563867</v>
+        <v>36.26051592938177</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>33.27163627425953</v>
+        <v>36.26051593753701</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>-15.62280591162843</v>
+        <v>36.26051589868419</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>3.776396571993455</v>
+        <v>36.26051593136145</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>6.735701250580554</v>
+        <v>36.26051594431058</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>-28.29855186644036</v>
+        <v>36.26051591762943</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>4.687434114933954</v>
+        <v>36.26051595433218</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>9.024347812663954</v>
+        <v>36.26051596879793</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>-26.45256680529972</v>
+        <v>36.26051592547802</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>19.85199992767456</v>
+        <v>36.26051596545265</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>27.29439515736145</v>
+        <v>36.26051597824462</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>17.60917236892109</v>
+        <v>36.2605159764959</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>24.93359430088076</v>
+        <v>36.26051599047993</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>28.2509306402699</v>
+        <v>36.26051599650869</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>-14.43329634245725</v>
+        <v>36.26051594357779</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>25.56934435217724</v>
+        <v>36.26051598846274</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>30.2155690828943</v>
+        <v>36.26051599767123</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>-11.0864169393532</v>
+        <v>36.2605159423962</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>11.51172616603579</v>
+        <v>36.26051597698122</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>17.27165907630595</v>
+        <v>36.26051599061376</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>-23.85322852374633</v>
+        <v>36.26051596165384</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>18.59159332790323</v>
+        <v>36.26051600049826</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>22.23558575984679</v>
+        <v>36.26051601562828</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>-19.74922576850118</v>
+        <v>36.26051597141334</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>38.15276248240511</v>
+        <v>36.26051601343424</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>43.79210891632422</v>
+        <v>36.2605160261486</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>47.12098627950775</v>
+        <v>36.26051602303795</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>51.33639215460789</v>
+        <v>36.26051603594183</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>55.73186341891635</v>
+        <v>36.26051604090998</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>-3.889216698356762</v>
+        <v>36.26051598624043</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>47.73365953148874</v>
+        <v>36.26051603129653</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>53.24229540463392</v>
+        <v>36.26051604073477</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>-18.04749635749962</v>
+        <v>36.26051584378826</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>0.6503405293129134</v>
+        <v>36.26051587330694</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>6.196591779587454</v>
+        <v>36.26051588436023</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>-24.3360906144157</v>
+        <v>36.26051586378576</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>12.00310649822924</v>
+        <v>36.26051589947234</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>15.13730258332789</v>
+        <v>36.26051591092381</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>-21.54622820699023</v>
+        <v>36.26051586610693</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>24.61799569273185</v>
+        <v>36.2605159033037</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>30.90273935033821</v>
+        <v>36.26051591336723</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>26.15164257411485</v>
+        <v>36.26051591973118</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>35.75664962212173</v>
+        <v>36.26051593068224</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>37.22451657109594</v>
+        <v>36.26051593598543</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>-16.46270238487903</v>
+        <v>36.26051588859911</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>17.50788651663592</v>
+        <v>36.26051592773239</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>24.54158119424993</v>
+        <v>36.26051593601773</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>-26.67699095833723</v>
+        <v>36.2605158921296</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>-2.432458397974031</v>
+        <v>36.26051592680511</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>2.333356600838879</v>
+        <v>36.26051594082369</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>-34.31346771202254</v>
+        <v>36.26051591109481</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>-3.590728278155453</v>
+        <v>36.260515949783</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>3.269157053353176</v>
+        <v>36.26051596565257</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>-36.5165672152819</v>
+        <v>36.26051591973455</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>11.48694471877961</v>
+        <v>36.2605159621567</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>22.70895825843521</v>
+        <v>36.26051597603261</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>11.83410363664073</v>
+        <v>36.26051597423938</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>22.22191117057943</v>
+        <v>36.26051598910513</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>24.41663746642928</v>
+        <v>36.26051599555032</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>-29.79220958159024</v>
+        <v>36.26051593877818</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>21.08875391136014</v>
+        <v>36.26051598709601</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>27.0005539441687</v>
+        <v>36.26051599692435</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>-21.1674062598677</v>
+        <v>36.26051593900844</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>5.975399300734534</v>
+        <v>36.26051597572351</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>14.15749727145464</v>
+        <v>36.26051599051182</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>-29.69945616828819</v>
+        <v>36.26051595847689</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>9.005108473230756</v>
+        <v>36.26051599952194</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>16.58292547105662</v>
+        <v>36.26051601615695</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>-30.68453997543202</v>
+        <v>36.26051596904598</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>27.90433287044713</v>
+        <v>36.26051601362885</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>38.05480609738562</v>
+        <v>36.26051602748999</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>40.55083422964401</v>
+        <v>36.26051602427592</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>47.54650981945738</v>
+        <v>36.26051603800493</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>53.75239551566447</v>
+        <v>36.26051604332109</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>-20.36073810561779</v>
+        <v>36.2605159845314</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>41.26182566167127</v>
+        <v>36.26051603320288</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>49.39941557806388</v>
+        <v>36.26051604325033</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_5/out_of_sample/ligand/LOO_XPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_5/out_of_sample/ligand/LOO_XPhos/results.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.144</v>
+        <v>0.536</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>29.232</v>
+        <v>17.524</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.843</v>
+        <v>-0.981</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.795</v>
+        <v>24.669</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.002</v>
+        <v>0.974</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28.594</v>
+        <v>4.582</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>36.26051583436534</v>
+        <v>14.85622973881842</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>36.26051586354524</v>
+        <v>12.47199173848063</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>36.26051587506181</v>
+        <v>15.70782589591159</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>36.26051585438099</v>
+        <v>0.2973550985258306</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>36.26051588941161</v>
+        <v>15.42517711723042</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>36.26051590144815</v>
+        <v>21.59525193363809</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>36.26051585610431</v>
+        <v>2.644198401554508</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>36.26051589290525</v>
+        <v>26.57126674560579</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>36.26051590353007</v>
+        <v>27.48790572039766</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>36.26051591058695</v>
+        <v>24.71641176559634</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>36.26051592202084</v>
+        <v>30.53441512289467</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>36.26051592785415</v>
+        <v>30.50394198392232</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>36.2605158810596</v>
+        <v>14.47942220145347</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>36.26051591922857</v>
+        <v>23.99734916093538</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>36.2605159280525</v>
+        <v>27.16411869329295</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>36.26051589006251</v>
+        <v>19.30624814280843</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>36.26051592468816</v>
+        <v>35.86075987363316</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>36.26051593961805</v>
+        <v>44.05719269760631</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>36.26051590974689</v>
+        <v>6.401958303418851</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>36.26051594803124</v>
+        <v>29.19050881413838</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>36.26051596518875</v>
+        <v>46.72094100449592</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>36.26051591797088</v>
+        <v>7.104470001155342</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>36.26051596030568</v>
+        <v>48.00064373741447</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>36.26051597523128</v>
+        <v>68.20814137841387</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>36.26051597292139</v>
+        <v>49.66509848626227</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>36.26051598868608</v>
+        <v>61.854480834234</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>36.2605159956232</v>
+        <v>72.01101690698715</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>36.26051593864169</v>
+        <v>18.42118641370752</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>36.26051598690781</v>
+        <v>67.70640813312323</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>36.2605159972923</v>
+        <v>75.33116142545779</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>36.26051593855085</v>
+        <v>25.86462169667298</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>36.26051597542677</v>
+        <v>44.89955506958322</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>36.26051599092978</v>
+        <v>52.70403920784323</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>36.26051595848988</v>
+        <v>9.775509352844857</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>36.26051599920945</v>
+        <v>40.16544193904408</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>36.26051601695105</v>
+        <v>54.60100001875234</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>36.26051596894617</v>
+        <v>12.99118298262196</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>36.26051601371748</v>
+        <v>69.76737627037639</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>36.26051602837996</v>
+        <v>79.98409657999947</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>36.26051602464832</v>
+        <v>76.61251392878836</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>36.26051603906796</v>
+        <v>88.79570818553309</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>36.26051604477749</v>
+        <v>94.85598416822081</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>36.26051598586264</v>
+        <v>34.03060898923713</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>36.26051603427345</v>
+        <v>89.59433947655018</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>36.26051604493599</v>
+        <v>92.08236817931311</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>36.26051584470927</v>
+        <v>8.250793963356131</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>36.26051587407434</v>
+        <v>37.81754199481418</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>36.26051588516101</v>
+        <v>41.81358444198771</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>36.26051586413568</v>
+        <v>1.564846900793068</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>36.26051589994341</v>
+        <v>43.04042589721257</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>36.26051591105072</v>
+        <v>47.70484076605582</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>36.26051586632239</v>
+        <v>2.933031230048279</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>36.26051590340296</v>
+        <v>63.47098724628385</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>36.26051591322354</v>
+        <v>64.53706405927312</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>36.26051591923499</v>
+        <v>59.10863594973208</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>36.26051592991983</v>
+        <v>66.40223331100773</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>36.26051593500892</v>
+        <v>63.85244449111509</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>36.26051588792462</v>
+        <v>10.18175065031367</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>36.26051592682374</v>
+        <v>58.8331034983955</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>36.26051593492316</v>
+        <v>66.53809697745227</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>36.26051589139345</v>
+        <v>11.13935750415478</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>36.26051592589552</v>
+        <v>38.26498747155973</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>36.26051593977524</v>
+        <v>44.62598957589962</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>36.2605159098273</v>
+        <v>1.510949479300535</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>36.26051594856681</v>
+        <v>32.06034588463816</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>36.26051596408368</v>
+        <v>45.37021243889574</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>36.26051591834116</v>
+        <v>4.57211091976027</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>36.26051596067762</v>
+        <v>56.58864748901148</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>36.26051597409916</v>
+        <v>73.34184063430391</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>36.26051597229462</v>
+        <v>52.82751030529089</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>36.26051598672981</v>
+        <v>66.44810651705046</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>36.26051599296281</v>
+        <v>70.64072142405472</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>36.26051593668184</v>
+        <v>7.787286988086528</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>36.2605159846102</v>
+        <v>69.09307462307459</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>36.26051599420602</v>
+        <v>75.96556796684291</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>36.2605159373089</v>
+        <v>9.408225258894376</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>36.26051597381335</v>
+        <v>43.89750220303196</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>36.26051598829814</v>
+        <v>48.40983360630237</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>36.26051595643971</v>
+        <v>-1.000832844325316</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>36.26051599757782</v>
+        <v>43.28036499254781</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>36.26051601356904</v>
+        <v>51.67133482456967</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>36.26051596686178</v>
+        <v>2.347853791127157</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>36.26051601132047</v>
+        <v>72.17469684870082</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>36.2605160246037</v>
+        <v>79.60925303867387</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>36.26051602167896</v>
+        <v>77.10749255356913</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>36.26051603505091</v>
+        <v>92.51955717265031</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>36.26051604015639</v>
+        <v>93.68853374247809</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>36.26051598183047</v>
+        <v>7.300449089598573</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>36.26051603020933</v>
+        <v>86.0151615845884</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>36.26051603989818</v>
+        <v>89.21309926391875</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>36.26051584385901</v>
+        <v>26.24846997749503</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>36.26051587319574</v>
+        <v>43.41555229470715</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>36.26051588411318</v>
+        <v>46.7619970901596</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>36.26051586302703</v>
+        <v>7.849008061429849</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>36.26051589888428</v>
+        <v>45.55960953626132</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>36.26051590979505</v>
+        <v>49.27842471833441</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>36.26051586514659</v>
+        <v>8.79055814737146</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>36.26051590220325</v>
+        <v>67.37328569211142</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>36.26051591190024</v>
+        <v>62.20693806314191</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>36.26051591821114</v>
+        <v>57.66794168495322</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>36.26051592885915</v>
+        <v>70.3469764622937</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>36.26051593393579</v>
+        <v>67.91750088862582</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>36.26051588704821</v>
+        <v>26.6059587776257</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>36.26051592588149</v>
+        <v>59.86205138284885</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>36.26051593389786</v>
+        <v>64.14875465723372</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>36.26051589215049</v>
+        <v>24.3872360307769</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>36.26051592682606</v>
+        <v>45.74471024813421</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>36.2605159404543</v>
+        <v>48.06407976630049</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>36.26051591066761</v>
+        <v>6.562729275790744</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>36.26051594975657</v>
+        <v>41.60266316774898</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>36.26051596490085</v>
+        <v>48.01526105555747</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>36.26051591915063</v>
+        <v>7.43018841673927</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>36.26051596166682</v>
+        <v>66.80729661161489</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>36.26051597489302</v>
+        <v>73.57938349618068</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>36.26051597337288</v>
+        <v>60.61666873013318</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>36.26051598773709</v>
+        <v>71.63810555227106</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>36.26051599391409</v>
+        <v>71.26573870379769</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>36.26051593761134</v>
+        <v>27.55311871837631</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>36.26051598564077</v>
+        <v>72.70010094135509</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>36.26051599510555</v>
+        <v>73.71596548265721</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>36.26051593853828</v>
+        <v>30.4680973364275</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>36.26051597518997</v>
+        <v>52.43709545414193</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>36.26051598944964</v>
+        <v>53.96118888151351</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>36.26051595761909</v>
+        <v>6.853195616050769</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>36.26051599907699</v>
+        <v>51.52358667951938</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>36.26051601473146</v>
+        <v>54.21951026389107</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>36.26051596805648</v>
+        <v>7.587952675248232</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>36.26051601268176</v>
+        <v>79.23623899126576</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>36.26051602578227</v>
+        <v>78.81375244247552</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>36.26051602302272</v>
+        <v>83.99720458755641</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>36.26051603635549</v>
+        <v>90.74650426265791</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>36.26051604141242</v>
+        <v>94.99387889034435</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>36.26051598314594</v>
+        <v>33.08927247480305</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>36.26051603155326</v>
+        <v>90.12566183524854</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>36.26051604111575</v>
+        <v>91.22871230946616</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>36.26051583452549</v>
+        <v>15.40207601245645</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>36.2605158631631</v>
+        <v>17.43861138491282</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>36.26051587432792</v>
+        <v>18.39048375168552</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>36.26051585405496</v>
+        <v>2.348181830889775</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>36.26051588844961</v>
+        <v>21.49270321519163</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>36.26051590004698</v>
+        <v>23.23237719848021</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>36.26051585561225</v>
+        <v>4.747400705141132</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>36.26051589169416</v>
+        <v>30.66539123204779</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>36.26051590198091</v>
+        <v>29.34942608604793</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>36.26051590931186</v>
+        <v>27.04718150008228</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>36.2605159203841</v>
+        <v>30.54934024394635</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>36.2605159262388</v>
+        <v>34.23637024002641</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>36.26051588082972</v>
+        <v>61.14567425921943</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>36.26051591820361</v>
+        <v>68.72249045828012</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>36.26051592671988</v>
+        <v>67.13683257845486</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>36.26051588831608</v>
+        <v>13.85408099408976</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>36.2605159223045</v>
+        <v>36.27431757907318</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>36.26051593673937</v>
+        <v>42.47649232991239</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>36.26051590744011</v>
+        <v>4.986178108008037</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>36.2605159450881</v>
+        <v>32.7804341659331</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>36.26051596155411</v>
+        <v>48.65017862362025</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>36.26051591528918</v>
+        <v>10.63465528469195</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>36.2605159568014</v>
+        <v>50.54749514003638</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>36.26051597121604</v>
+        <v>69.42509827532493</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>36.26051596934622</v>
+        <v>43.13489732249457</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>36.26051598462332</v>
+        <v>54.12411679423975</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>36.26051599155084</v>
+        <v>69.33380735034262</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>36.26051593600419</v>
+        <v>18.88922664094859</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>36.26051598322152</v>
+        <v>65.52694587754058</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>36.26051599324263</v>
+        <v>73.20542647125711</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>36.26051593577684</v>
+        <v>27.09561624316427</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>36.26051597192559</v>
+        <v>46.22829639903741</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>36.26051598694769</v>
+        <v>53.95722689548526</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>36.2605159552083</v>
+        <v>8.887747378784141</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>36.26051599516298</v>
+        <v>41.15503611762506</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>36.26051601225522</v>
+        <v>50.73455385957404</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>36.26051596528412</v>
+        <v>15.49721233385536</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>36.26051600915593</v>
+        <v>66.2771060656232</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>36.260516023352</v>
+        <v>78.27758891097037</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>36.26051602023397</v>
+        <v>65.15126300283926</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>36.26051603427022</v>
+        <v>76.51133383656575</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>36.26051603994268</v>
+        <v>92.53769079408033</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>36.26051598242461</v>
+        <v>36.9581607020843</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>36.2605160297875</v>
+        <v>84.25918558509531</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>36.26051604011053</v>
+        <v>91.26686424774418</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>36.26051584401822</v>
+        <v>24.47443305109035</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>36.26051587347668</v>
+        <v>43.06581263895544</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>36.26051588450044</v>
+        <v>42.20750131221341</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>36.26051586418304</v>
+        <v>7.99224265717729</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>36.2605158996511</v>
+        <v>47.0578581512224</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>36.26051591111344</v>
+        <v>51.30333753392864</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>36.26051586624702</v>
+        <v>10.62422189015642</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>36.26051590329416</v>
+        <v>73.98279743969486</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>36.26051591342611</v>
+        <v>66.76134367486463</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>36.26051591970265</v>
+        <v>59.01447587052989</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>36.26051593086831</v>
+        <v>73.83931380433307</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>36.26051593644443</v>
+        <v>75.42149828833018</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>36.2605158896303</v>
+        <v>22.5080283094974</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>36.26051592745322</v>
+        <v>16.1477431317549</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>36.26051593586148</v>
+        <v>18.23689915001662</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>36.26051589839205</v>
+        <v>31.60085619994213</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>36.26051593317159</v>
+        <v>56.436903204077</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>36.26051594732009</v>
+        <v>53.95979214710842</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>36.26051591800499</v>
+        <v>8.226350893743628</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>36.26051595666154</v>
+        <v>46.09321013652192</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>36.26051597285854</v>
+        <v>54.4678164442906</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>36.26051592637863</v>
+        <v>11.23440997420719</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>36.26051596879947</v>
+        <v>74.65197422128233</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>36.26051598290129</v>
+        <v>78.33155330956174</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>36.26051598027593</v>
+        <v>73.02880940177995</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>36.26051599559727</v>
+        <v>79.60522509300985</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>36.26051600225363</v>
+        <v>80.85988215884248</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>36.26051594588731</v>
+        <v>42.2416193198376</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>36.2605159934521</v>
+        <v>80.34696847900932</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>36.26051600324683</v>
+        <v>80.29264986476741</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>36.26051594462846</v>
+        <v>36.61317602530816</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>36.26051598148926</v>
+        <v>56.57716343168059</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>36.2605159962591</v>
+        <v>56.76563567051519</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>36.26051596446536</v>
+        <v>8.374520090816809</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>36.26051600535656</v>
+        <v>48.35577809363618</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>36.26051602221548</v>
+        <v>52.2382773153814</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>36.26051597494527</v>
+        <v>11.90237838899183</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>36.26051601961086</v>
+        <v>80.17964442078804</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>36.26051603357548</v>
+        <v>81.70492898925018</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>36.2605160296013</v>
+        <v>87.01940945349384</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>36.26051604370463</v>
+        <v>91.74177445463026</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>36.26051604918219</v>
+        <v>94.68476851913643</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>36.26051599098942</v>
+        <v>49.86990534096243</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>36.26051603865744</v>
+        <v>91.54521639651543</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>36.26051604880772</v>
+        <v>88.94416776763018</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>36.26051585817012</v>
+        <v>17.37564588011536</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>36.26051588484679</v>
+        <v>34.4866946918434</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>36.26051589430754</v>
+        <v>39.14572582369566</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>36.26051587615039</v>
+        <v>6.252693319667529</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>36.2605159086932</v>
+        <v>44.98202680128055</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>36.26051591822154</v>
+        <v>48.13784640908798</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>36.26051587802559</v>
+        <v>6.859944521352457</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>36.26051591155314</v>
+        <v>71.98344843125048</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>36.26051592003054</v>
+        <v>67.4466124738971</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>36.26051592511713</v>
+        <v>63.00256094306455</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>36.26051593471363</v>
+        <v>72.03560268733166</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>36.26051593921967</v>
+        <v>73.09800981135493</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>36.26051589663992</v>
+        <v>14.57370568794954</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>36.26051593083623</v>
+        <v>7.663743277452095</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>36.26051593790626</v>
+        <v>9.954139663738083</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>36.26051590444429</v>
+        <v>23.42410943073607</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>36.26051593603244</v>
+        <v>51.17154337831708</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>36.26051594790603</v>
+        <v>52.2150614465253</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>36.26051592175093</v>
+        <v>5.627283375144334</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>36.26051595735728</v>
+        <v>45.96210834044893</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>36.26051597064515</v>
+        <v>52.62647326276893</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>36.26051592934776</v>
+        <v>6.467488135578428</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>36.26051596785521</v>
+        <v>73.8980689796918</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>36.26051597945354</v>
+        <v>76.85147370640729</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>36.2605159773524</v>
+        <v>60.47695089732192</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>36.26051599037476</v>
+        <v>73.04789284287773</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>36.26051599580595</v>
+        <v>76.57282479024818</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>36.26051594495535</v>
+        <v>24.84357962370717</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>36.26051598788748</v>
+        <v>80.19806434639366</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>36.26051599611566</v>
+        <v>83.80423562938793</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>36.26051594391228</v>
+        <v>23.7567156046759</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>36.26051597721939</v>
+        <v>50.77115670162587</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>36.26051598963876</v>
+        <v>53.3593606600453</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>36.2605159617317</v>
+        <v>2.736672345144626</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>36.2605159993522</v>
+        <v>48.53255771011618</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>36.26051601310953</v>
+        <v>51.02785169464869</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>36.26051597098294</v>
+        <v>4.518265198946239</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>36.26051601132097</v>
+        <v>79.17471067929853</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>36.26051602282907</v>
+        <v>79.08753892651838</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>36.26051601962659</v>
+        <v>80.20714184461953</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>36.26051603172015</v>
+        <v>91.48120424769196</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>36.26051603618414</v>
+        <v>92.86286146774457</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>36.26051598367316</v>
+        <v>25.12238712780989</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>36.26051602688119</v>
+        <v>87.67515115199731</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>36.26051603528851</v>
+        <v>87.46429489117031</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>36.26051583975465</v>
+        <v>9.348383018189356</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>36.26051586517551</v>
+        <v>6.347717534512228</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>36.2605158753708</v>
+        <v>10.46752278752075</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>36.26051585685084</v>
+        <v>-1.278424064117019</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>36.26051588779032</v>
+        <v>11.52764928203581</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>36.26051589811018</v>
+        <v>15.57399629219499</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>36.26051585800089</v>
+        <v>-0.8469195248053545</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>36.26051589022804</v>
+        <v>20.7978614700539</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>36.26051589944539</v>
+        <v>20.7606207019118</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>36.26051590637793</v>
+        <v>22.48943403411679</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>36.26051591628852</v>
+        <v>30.24516640166402</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>36.26051592137141</v>
+        <v>32.52994734291124</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>36.26051587996821</v>
+        <v>10.43416914903379</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>36.26051591371965</v>
+        <v>17.38603766509079</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>36.26051592134317</v>
+        <v>18.36764169836984</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>36.26051588830717</v>
+        <v>12.82259976901201</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>36.2605159185975</v>
+        <v>27.80055625097112</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>36.26051593170816</v>
+        <v>34.28437326593122</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>36.26051590560124</v>
+        <v>4.657814620184087</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>36.26051593964094</v>
+        <v>26.84343633849835</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>36.26051595426284</v>
+        <v>39.34656424082503</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>36.26051591278991</v>
+        <v>5.419895812713854</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>36.26051595011227</v>
+        <v>42.53796658268875</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>36.26051596299094</v>
+        <v>56.48482930143096</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>36.26051596216497</v>
+        <v>39.50218934831772</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>36.26051597557684</v>
+        <v>51.16332387345888</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>36.2605159815557</v>
+        <v>55.64826388588629</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>36.26051593124974</v>
+        <v>13.9348594286776</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>36.2605159738901</v>
+        <v>53.76772865782069</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>36.26051598296609</v>
+        <v>55.55470679674459</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>36.26051593187156</v>
+        <v>16.77123058027642</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>36.26051596409348</v>
+        <v>37.66963455440529</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>36.26051597784589</v>
+        <v>44.00347188661669</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>36.26051594975628</v>
+        <v>7.351056140065339</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>36.2605159861008</v>
+        <v>40.43654907625486</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>36.26051600120346</v>
+        <v>49.46881578746022</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>36.2605159587972</v>
+        <v>9.567767841743688</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>36.26051599823123</v>
+        <v>65.94338654839657</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>36.26051601094239</v>
+        <v>71.22615572938385</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>36.26051600876943</v>
+        <v>70.92520278667918</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>36.26051602111968</v>
+        <v>80.09084556129442</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>36.26051602606113</v>
+        <v>82.22730593715447</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>36.26051597399683</v>
+        <v>29.22743241639314</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>36.26051601690551</v>
+        <v>80.48861191515547</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>36.26051602611979</v>
+        <v>86.18077006281663</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>36.26051583366017</v>
+        <v>10.85278126421014</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>36.26051586241496</v>
+        <v>8.731161965354168</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>36.26051587350095</v>
+        <v>8.783243381975197</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>36.26051585303284</v>
+        <v>-1.732923099145168</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>36.26051588770287</v>
+        <v>11.29405227087378</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>36.26051589917391</v>
+        <v>12.80872214731468</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>36.26051585445531</v>
+        <v>-1.171007155193763</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>36.26051589067931</v>
+        <v>15.25941033024574</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>36.26051590090581</v>
+        <v>11.74890086591763</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>36.26051590791081</v>
+        <v>11.95826211573108</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>36.26051591900968</v>
+        <v>14.56454475620165</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>36.26051592465407</v>
+        <v>12.5722425498833</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>36.26051587868891</v>
+        <v>10.86652261652411</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>36.26051591611067</v>
+        <v>13.11871982147296</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>36.26051592457862</v>
+        <v>14.96647304878868</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>36.2605158856841</v>
+        <v>4.323008751804057</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>36.26051591968044</v>
+        <v>7.403620936389672</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>36.26051593388835</v>
+        <v>12.27452502245397</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>36.26051590457174</v>
+        <v>-2.98492134095364</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>36.26051594237763</v>
+        <v>3.752101112687136</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>36.26051595854437</v>
+        <v>13.42405251777116</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>36.26051591221057</v>
+        <v>-2.194353652436732</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>36.26051595374054</v>
+        <v>12.4203724253346</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>36.26051596795875</v>
+        <v>29.70046159526808</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>36.26051596623302</v>
+        <v>8.064521417072029</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>36.26051598146621</v>
+        <v>20.32104353787356</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>36.26051598829999</v>
+        <v>31.52755465543126</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>36.26051593255227</v>
+        <v>0.6456922396812885</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>36.26051597954202</v>
+        <v>19.07014997246237</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>36.2605159894733</v>
+        <v>16.49821470376639</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>36.2605159328967</v>
+        <v>5.134544123627769</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>36.26051596897914</v>
+        <v>9.376073509661886</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>36.26051598392107</v>
+        <v>31.60732487615058</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>36.26051595220551</v>
+        <v>-0.7247780691160344</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>36.26051599229685</v>
+        <v>13.21609575323529</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>36.26051600922757</v>
+        <v>32.70224216690892</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>36.26051596201241</v>
+        <v>-0.5355101221901819</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>36.26051600578852</v>
+        <v>23.745940940915</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>36.26051602000337</v>
+        <v>60.77274133774237</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>36.26051601675814</v>
+        <v>25.00269985604505</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>36.26051603093035</v>
+        <v>49.2853679216272</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>36.26051603656261</v>
+        <v>72.59988533737048</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>36.26051597878951</v>
+        <v>4.114805675975845</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>36.26051602601565</v>
+        <v>29.2141160194616</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>36.26051603635953</v>
+        <v>42.00472211910829</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>36.26051585795527</v>
+        <v>13.15040212466614</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>36.26051588573944</v>
+        <v>23.00210731662498</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>36.26051589630066</v>
+        <v>37.71054852717069</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>36.26051587799051</v>
+        <v>5.100299167309462</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>36.2605159122099</v>
+        <v>44.73996192775002</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>36.26051592258899</v>
+        <v>51.87616809832929</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>36.26051588035959</v>
+        <v>6.267592993598328</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>36.26051591559785</v>
+        <v>66.06877997179703</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>36.26051592492023</v>
+        <v>68.73492980621671</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>36.26051593021177</v>
+        <v>63.3945645383844</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>36.26051594045781</v>
+        <v>75.95656351525666</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>36.26051594531394</v>
+        <v>73.06692459830845</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>36.26051590061576</v>
+        <v>27.94492041638842</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>36.26051593694166</v>
+        <v>52.74587192940594</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>36.26051594484176</v>
+        <v>73.39481717117816</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>36.26051590287275</v>
+        <v>17.80868914919884</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>36.26051593561699</v>
+        <v>33.78479090427605</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>36.26051594870543</v>
+        <v>36.82074467452743</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>36.26051592210803</v>
+        <v>0.8497539273989325</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>36.26051595929916</v>
+        <v>34.13009785810374</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>36.26051597363779</v>
+        <v>37.40501886778803</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>36.26051593035615</v>
+        <v>1.579772031916889</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>36.26051597064883</v>
+        <v>55.11762996663922</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>36.26051598325486</v>
+        <v>60.91141757604829</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>36.26051598110655</v>
+        <v>46.74821308877564</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>36.26051599500281</v>
+        <v>56.2108104162848</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>36.26051600078672</v>
+        <v>56.34238709142831</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>36.26051594754337</v>
+        <v>26.58749787062565</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>36.26051599272917</v>
+        <v>63.77158342331911</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>36.26051600174122</v>
+        <v>64.00733324867753</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>36.26051594552692</v>
+        <v>20.44757957272518</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>36.26051598010636</v>
+        <v>37.98255206739363</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>36.26051599384118</v>
+        <v>44.52753967213668</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>36.26051596526277</v>
+        <v>5.280910177822363</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>36.26051600467209</v>
+        <v>46.13774950465263</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>36.26051601949847</v>
+        <v>48.70873505167073</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>36.2605159752562</v>
+        <v>6.176089399633298</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>36.2605160175132</v>
+        <v>71.46379322922394</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>36.2605160300289</v>
+        <v>74.66102456891392</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>36.26051602665449</v>
+        <v>74.77936538645871</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>36.26051603942608</v>
+        <v>80.6887972423188</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>36.26051604419693</v>
+        <v>84.48101455723575</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>36.26051598923037</v>
+        <v>32.1884826055481</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>36.26051603467862</v>
+        <v>80.31405196860703</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>36.26051604384028</v>
+        <v>87.92661404986205</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>36.26051583491282</v>
+        <v>8.340442191495626</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>36.2605158602417</v>
+        <v>8.532284805742602</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>36.26051587043848</v>
+        <v>13.61978228591556</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>36.26051585099077</v>
+        <v>-1.257963732255199</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>36.26051588162316</v>
+        <v>6.993088606548675</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>36.26051589210408</v>
+        <v>14.05618586580667</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>36.26051585200207</v>
+        <v>-1.504882227841776</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>36.26051588403202</v>
+        <v>14.39451113540209</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>36.26051589334749</v>
+        <v>18.63205538941541</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>36.2605159002204</v>
+        <v>14.40538055981946</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>36.26051590982664</v>
+        <v>20.25353405724205</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>36.26051591478404</v>
+        <v>23.41985136446268</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>36.26051587377667</v>
+        <v>9.908030374463777</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>36.26051590781951</v>
+        <v>16.13280716160275</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>36.26051591540822</v>
+        <v>20.26620523149681</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>36.26051588013998</v>
+        <v>6.827265962723523</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>36.2605159100906</v>
+        <v>18.66452181282136</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>36.26051592319906</v>
+        <v>29.63535885206973</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>36.26051589604212</v>
+        <v>2.69600309462302</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>36.26051592946036</v>
+        <v>16.02645063026628</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>36.26051594419696</v>
+        <v>33.23906485210547</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>36.26051590304613</v>
+        <v>3.090019709388045</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>36.26051593989499</v>
+        <v>27.59660912568046</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>36.26051595292352</v>
+        <v>49.44730388419126</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>36.26051595228219</v>
+        <v>21.21899415139749</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>36.26051596529091</v>
+        <v>34.27866269855207</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>36.2605159714256</v>
+        <v>38.93660866533798</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>36.26051592153978</v>
+        <v>5.450755048087998</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>36.26051596391056</v>
+        <v>34.47569540928214</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>36.26051597321931</v>
+        <v>44.85388171363823</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>36.26051592420595</v>
+        <v>14.79986132954559</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>36.26051595603444</v>
+        <v>28.26837617353322</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>36.26051597000479</v>
+        <v>43.38124306338306</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>36.26051594075516</v>
+        <v>5.404818568230738</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>36.26051597635975</v>
+        <v>27.06690568816864</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>36.26051599195713</v>
+        <v>44.30268763644084</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>36.26051594959267</v>
+        <v>10.82246651160457</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>36.26051598845724</v>
+        <v>44.54896001218002</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>36.26051600155763</v>
+        <v>64.40236576515849</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>36.26051599954922</v>
+        <v>45.71553724742769</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>36.26051601171211</v>
+        <v>58.13719707603275</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>36.26051601680687</v>
+        <v>79.08905246174648</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>36.26051596483823</v>
+        <v>24.72322814669097</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>36.26051600774058</v>
+        <v>58.29379663604131</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>36.26051601723865</v>
+        <v>72.47375274479059</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>36.26051584109789</v>
+        <v>3.225944261970664</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>36.26051586890522</v>
+        <v>0.2849263693992974</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>36.26051587902415</v>
+        <v>7.316109284346236</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>36.26051585845828</v>
+        <v>-3.52153057084017</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>36.26051589223086</v>
+        <v>5.460400628019269</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>36.26051590249328</v>
+        <v>11.52246040717152</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>36.26051585998394</v>
+        <v>-5.054005199754116</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>36.26051589497674</v>
+        <v>9.067385301333779</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>36.26051590402738</v>
+        <v>11.9673286253777</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>36.2605159105313</v>
+        <v>1.266081464708058</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>36.2605159205322</v>
+        <v>3.93519099333928</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>36.26051592530543</v>
+        <v>16.63912158287092</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>36.26051588116039</v>
+        <v>2.683729807125349</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>36.26051591774535</v>
+        <v>3.267099661056413</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>36.26051592516801</v>
+        <v>11.06294747325462</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>36.26051588998286</v>
+        <v>17.02200236654594</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>36.26051592295563</v>
+        <v>35.55826986549265</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>36.26051593574228</v>
+        <v>35.93557126335162</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>36.26051590700835</v>
+        <v>5.331676490181025</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>36.26051594398439</v>
+        <v>32.87001396446806</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>36.26051595836926</v>
+        <v>38.61325616396724</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>36.26051591479836</v>
+        <v>6.278864592530041</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>36.26051595512893</v>
+        <v>53.81294351038732</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>36.26051596759611</v>
+        <v>56.45331757331954</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>36.26051596653997</v>
+        <v>47.35299635201407</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>36.26051598007081</v>
+        <v>53.15435666046206</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>36.26051598594295</v>
+        <v>54.50846799643448</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>36.26051593254424</v>
+        <v>18.68366080640867</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>36.26051597806797</v>
+        <v>60.41386086133311</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>36.26051598695963</v>
+        <v>61.56692268651462</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>36.26051593432138</v>
+        <v>20.99537127235204</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>36.26051596927346</v>
+        <v>43.97966650482326</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>36.26051598259131</v>
+        <v>46.07395656302345</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>36.26051595188769</v>
+        <v>7.038962057435654</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>36.26051599119508</v>
+        <v>47.8819192795695</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>36.26051600601464</v>
+        <v>52.73155967151993</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>36.26051596153774</v>
+        <v>7.522525297462849</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>36.26051600394109</v>
+        <v>71.6696032305731</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>36.26051601626332</v>
+        <v>70.02367531928331</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>36.26051601398758</v>
+        <v>77.45570900256196</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>36.26051602663411</v>
+        <v>86.94042522737765</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>36.26051603142752</v>
+        <v>86.21169490678501</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>36.26051597602802</v>
+        <v>24.14442760294473</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>36.26051602201395</v>
+        <v>84.85106480583367</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>36.2605160310034</v>
+        <v>84.99322879684733</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>36.26051582945865</v>
+        <v>10.39617697285893</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>36.26051585622652</v>
+        <v>10.95655239125511</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>36.26051586662658</v>
+        <v>17.01469692479323</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>36.26051584619053</v>
+        <v>-2.049216559042549</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>36.26051587872048</v>
+        <v>11.05164773196482</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>36.26051588913997</v>
+        <v>16.33116344723478</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>36.26051584720789</v>
+        <v>-0.08804703545242276</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>36.26051588108375</v>
+        <v>20.10643731363245</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>36.26051589042471</v>
+        <v>25.52303273742135</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>36.26051589804842</v>
+        <v>16.37978204073003</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>36.26051590793097</v>
+        <v>24.88803896730159</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>36.2605159130393</v>
+        <v>28.00691645662938</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>36.26051587013986</v>
+        <v>11.80592191961531</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>36.26051590578434</v>
+        <v>21.18875640954575</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>36.26051591348912</v>
+        <v>26.3918879973147</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>36.26051587490277</v>
+        <v>5.33379950926194</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>36.26051590655141</v>
+        <v>9.321832918842194</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>36.26051591974905</v>
+        <v>18.29457288793247</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>36.2605158912271</v>
+        <v>-2.920268363486663</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>36.26051592670233</v>
+        <v>6.550589023245905</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>36.26051594132653</v>
+        <v>20.25094364203603</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>36.26051589831749</v>
+        <v>-2.532060593843617</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>36.26051593723952</v>
+        <v>15.2448806762037</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>36.26051595018828</v>
+        <v>34.08681303765951</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>36.26051595027381</v>
+        <v>10.35886379139819</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>36.26051596363824</v>
+        <v>20.08490740789046</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>36.26051596990444</v>
+        <v>29.51839971014651</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>36.26051591795452</v>
+        <v>2.624757620386198</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>36.26051596220891</v>
+        <v>21.73017249845506</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>36.26051597152003</v>
+        <v>29.36060948489072</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>36.26051592163184</v>
+        <v>19.17646106876942</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>36.26051595529417</v>
+        <v>28.81764621944195</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>36.26051596912117</v>
+        <v>36.16318205814974</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>36.26051593878648</v>
+        <v>1.008453943786598</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>36.26051597659838</v>
+        <v>24.10054571252789</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>36.26051599171869</v>
+        <v>31.33481594970676</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>36.26051594808062</v>
+        <v>6.795909577483613</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>36.26051598922985</v>
+        <v>44.4637900207479</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>36.26051600198606</v>
+        <v>54.46544022286129</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>36.26051600107245</v>
+        <v>48.13641153175228</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>36.2605160135288</v>
+        <v>54.00718563511444</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>36.26051601860085</v>
+        <v>65.74444620337837</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>36.26051596447513</v>
+        <v>22.51779215178984</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>36.26051600932291</v>
+        <v>49.64330646494072</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>36.26051601866383</v>
+        <v>54.3831770070827</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>36.26051582826747</v>
+        <v>4.973694560476677</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>36.26051585365252</v>
+        <v>2.942639036123907</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>36.26051586336827</v>
+        <v>3.714474069461549</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>36.26051584357491</v>
+        <v>-3.201737911827976</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>36.26051587436913</v>
+        <v>2.91135170396198</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>36.26051588418441</v>
+        <v>4.207571911712598</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>36.26051584399684</v>
+        <v>-1.260145752250811</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>36.2605158760388</v>
+        <v>6.044662372348675</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>36.26051588477538</v>
+        <v>5.551564619665751</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>36.26051589269109</v>
+        <v>1.696073026988291</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>36.26051590206082</v>
+        <v>2.485868863513986</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>36.26051590681513</v>
+        <v>4.885017500267434</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>36.26051586639726</v>
+        <v>6.482713245229291</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>36.26051590012848</v>
+        <v>7.495184969032493</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>36.26051590731144</v>
+        <v>9.828974468154072</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>36.2605158714834</v>
+        <v>1.638241023140587</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>36.26051590152488</v>
+        <v>2.768355472214289</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>36.26051591387441</v>
+        <v>1.854775119133173</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>36.26051588639928</v>
+        <v>-2.414802746001406</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>36.26051592002087</v>
+        <v>1.229971686610376</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>36.26051593381517</v>
+        <v>6.168529836433201</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>36.260515892543</v>
+        <v>-3.347756094026494</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>36.26051592939604</v>
+        <v>4.749110437582615</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>36.26051594150708</v>
+        <v>9.307367102210662</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>36.26051594235509</v>
+        <v>3.310675925347965</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>36.26051595504068</v>
+        <v>5.944097477599399</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>36.26051596087373</v>
+        <v>3.593300981284152</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>36.26051591176588</v>
+        <v>-1.828709930285939</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>36.26051595368114</v>
+        <v>6.702147950012183</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>36.2605159623708</v>
+        <v>9.325187218618467</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>36.26051591532333</v>
+        <v>18.55692772643107</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>36.26051594723155</v>
+        <v>22.00302396543837</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>36.26051596016183</v>
+        <v>24.74008905114135</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>36.26051593106632</v>
+        <v>2.749495060984245</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>36.26051596685026</v>
+        <v>17.01757637618272</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>36.26051598114535</v>
+        <v>21.46770649442949</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>36.26051593921991</v>
+        <v>8.016615491148734</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>36.260515978098</v>
+        <v>30.36475727786013</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>36.26051599007631</v>
+        <v>34.64531403692173</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>36.26051599012715</v>
+        <v>37.58977926430034</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>36.26051600200977</v>
+        <v>42.26356139358225</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>36.26051600675828</v>
+        <v>42.22381602216817</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>36.26051595540527</v>
+        <v>23.85488622353994</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>36.26051599781376</v>
+        <v>32.86033892834885</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>36.26051600662392</v>
+        <v>39.37704412045702</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>36.26051583532567</v>
+        <v>17.04435946326032</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>36.26051586424647</v>
+        <v>21.9192743687198</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>36.26051587574064</v>
+        <v>31.21445861562708</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>36.26051585512105</v>
+        <v>0.9883530732609067</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>36.2605158898666</v>
+        <v>20.76480564327656</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>36.26051590167023</v>
+        <v>28.68196688741939</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>36.26051585718934</v>
+        <v>4.188177364038026</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>36.26051589375712</v>
+        <v>37.92431324814373</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>36.26051590431617</v>
+        <v>43.39298460445038</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>36.26051591161524</v>
+        <v>36.58352354994099</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>36.26051592276939</v>
+        <v>46.6124785554374</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>36.26051592861789</v>
+        <v>49.74079783868062</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>36.26051588229031</v>
+        <v>32.38330820054871</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>36.26051592032205</v>
+        <v>53.75140381252329</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>36.26051592900604</v>
+        <v>62.80815585244714</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>36.26051588697108</v>
+        <v>13.61811991909071</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>36.26051592117311</v>
+        <v>24.18200066864148</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>36.26051593579778</v>
+        <v>26.56349629273928</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>36.26051590638992</v>
+        <v>-3.462288530104907</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>36.26051594430253</v>
+        <v>12.966279482857</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>36.26051596087407</v>
+        <v>21.75359145805247</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>36.26051591464493</v>
+        <v>-0.5532806815491327</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>36.26051595656781</v>
+        <v>31.3247357250846</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>36.26051597114725</v>
+        <v>36.86172299591635</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>36.26051596971737</v>
+        <v>30.00901646308409</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>36.2605159850337</v>
+        <v>38.73172365759034</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>36.26051599190161</v>
+        <v>39.18405320355225</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>36.26051593579204</v>
+        <v>16.85770195215208</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>36.26051598359967</v>
+        <v>43.51180055198756</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>36.26051599376176</v>
+        <v>48.29280650382432</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>36.26051593588945</v>
+        <v>22.77764195677432</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>36.26051597227548</v>
+        <v>36.8491684587872</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>36.26051598761988</v>
+        <v>42.95950900258298</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>36.26051595559812</v>
+        <v>3.54733172992912</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>36.26051599586563</v>
+        <v>31.24578752566634</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>36.26051601317042</v>
+        <v>36.31145923367217</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>36.26051596615507</v>
+        <v>8.542191410696368</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>36.26051601046482</v>
+        <v>57.89524131643414</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>36.26051602490079</v>
+        <v>61.68584699047242</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>36.26051602195877</v>
+        <v>67.39901134801174</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>36.26051603602794</v>
+        <v>73.50189886296562</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>36.2605160416926</v>
+        <v>79.04747408328124</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>36.26051598360938</v>
+        <v>31.45456387841293</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>36.26051603151841</v>
+        <v>66.13942604092652</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>36.26051604198921</v>
+        <v>74.21672562359723</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>36.26051584359724</v>
+        <v>16.75934294960673</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>36.26051587119818</v>
+        <v>37.38602900811222</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>36.26051588182938</v>
+        <v>41.94736112760093</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>36.26051586157188</v>
+        <v>8.557502533659214</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>36.2605158951195</v>
+        <v>41.47915973730103</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>36.26051590585907</v>
+        <v>46.14497844375722</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>36.26051586343344</v>
+        <v>9.756272884325639</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>36.26051589832836</v>
+        <v>59.15770354479315</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>36.26051590778933</v>
+        <v>60.58868081294536</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>36.26051591400126</v>
+        <v>68.15682668776948</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>36.26051592410459</v>
+        <v>71.8405588081808</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>36.26051592904943</v>
+        <v>70.70532231070132</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>36.26051588462404</v>
+        <v>22.11250159798064</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>36.26051592160241</v>
+        <v>63.01638295113763</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>36.26051592930558</v>
+        <v>68.74434169463626</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>36.26051588788168</v>
+        <v>14.47430985106306</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>36.26051592026443</v>
+        <v>33.6555318782185</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>36.26051593372515</v>
+        <v>39.40813233324712</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>36.26051590494885</v>
+        <v>3.297247776240141</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>36.26051594119178</v>
+        <v>27.70259412984534</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>36.26051595624607</v>
+        <v>38.16143455151158</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>36.26051591288191</v>
+        <v>4.697149001961563</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>36.26051595270528</v>
+        <v>47.52533247796185</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>36.26051596574727</v>
+        <v>61.25667217438399</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>36.26051596445525</v>
+        <v>46.75101254312311</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>36.26051597806996</v>
+        <v>55.27399338661451</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>36.26051598419399</v>
+        <v>55.81141634324829</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>36.26051593091575</v>
+        <v>14.11059017131697</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>36.26051597634446</v>
+        <v>58.37089729395405</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>36.26051598564374</v>
+        <v>64.69404998898689</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>36.26051593230699</v>
+        <v>15.32656852036086</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>36.26051596661362</v>
+        <v>39.00121029662601</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>36.26051598069883</v>
+        <v>46.16298666808146</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>36.2605159500676</v>
+        <v>1.040144149158088</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>36.26051598856629</v>
+        <v>37.73547139961563</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>36.26051600420263</v>
+        <v>46.17620241981458</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>36.26051595987202</v>
+        <v>3.595351986439873</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>36.26051600173715</v>
+        <v>60.87456569379538</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>36.26051601468351</v>
+        <v>69.82595333072254</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>36.26051601231572</v>
+        <v>67.91040832498877</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>36.26051602497164</v>
+        <v>78.95236170095396</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>36.26051602998024</v>
+        <v>85.47790707655945</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>36.26051597466936</v>
+        <v>14.88776556615318</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>36.26051602055988</v>
+        <v>74.43534016017642</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>36.26051602996441</v>
+        <v>81.21187339148919</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>36.26051584195267</v>
+        <v>20.93431121895876</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>36.26051587246253</v>
+        <v>29.96157586832938</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>36.2605158841646</v>
+        <v>36.70882506588329</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>36.26051586349777</v>
+        <v>6.61964874717226</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>36.26051590035128</v>
+        <v>41.85562756910113</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>36.26051591242615</v>
+        <v>47.20601202274563</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>36.26051586579024</v>
+        <v>9.276638803773835</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>36.26051590428142</v>
+        <v>58.65326757298814</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>36.26051591495568</v>
+        <v>59.62163404059632</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>36.26051592136204</v>
+        <v>64.97476505526221</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>36.26051593303318</v>
+        <v>65.58262063921566</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>36.26051593879868</v>
+        <v>66.52783177194443</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>36.26051589000829</v>
+        <v>25.43727834995091</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>36.26051592968082</v>
+        <v>43.75554238896556</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>36.26051593865436</v>
+        <v>63.85898542370742</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>36.26051589634577</v>
+        <v>22.44400338544612</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>36.26051593239735</v>
+        <v>39.89315279983759</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>36.26051594733617</v>
+        <v>40.65450930314899</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>36.26051591706915</v>
+        <v>3.232380329038449</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>36.26051595715076</v>
+        <v>34.34402115844209</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>36.26051597419815</v>
+        <v>40.46835256876938</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>36.26051592588305</v>
+        <v>3.281919202766566</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>36.26051596995968</v>
+        <v>54.50277619880599</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>36.26051598475586</v>
+        <v>62.82959643873564</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>36.26051598192707</v>
+        <v>53.63674076823666</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>36.26051599797539</v>
+        <v>58.81223613823197</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>36.26051600483888</v>
+        <v>60.38761420989186</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>36.26051594599171</v>
+        <v>20.44823638071278</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>36.26051599584179</v>
+        <v>62.70206302224513</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>36.26051600621371</v>
+        <v>68.11718411918534</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>36.26051594479988</v>
+        <v>24.24147577603485</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>36.26051598308051</v>
+        <v>43.01194142539673</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>36.26051599859517</v>
+        <v>47.3849927910133</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>36.26051596580831</v>
+        <v>4.943015045962902</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>36.26051600835807</v>
+        <v>43.72992934928151</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>36.26051602595057</v>
+        <v>48.34099254805798</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>36.26051597677652</v>
+        <v>4.205811750082496</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>36.26051602324117</v>
+        <v>68.21097038051442</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>36.26051603780616</v>
+        <v>72.86949192279587</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>36.26051603357877</v>
+        <v>78.8092948172293</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>36.26051604826118</v>
+        <v>83.00332442820624</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>36.26051605390588</v>
+        <v>86.50857801201789</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>36.26051599313575</v>
+        <v>23.82316337428423</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>36.26051604314839</v>
+        <v>75.83460907760907</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>36.26051605378467</v>
+        <v>82.20306693365177</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>36.26051584376172</v>
+        <v>21.75342923365288</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>36.26051587266853</v>
+        <v>30.36618813315269</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>36.26051588382479</v>
+        <v>33.26743085065762</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>36.26051586461849</v>
+        <v>14.01581044127478</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>36.2605158993393</v>
+        <v>58.65595557658077</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>36.26051591093572</v>
+        <v>58.06780060249221</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>36.26051586639505</v>
+        <v>10.05440682930876</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>36.26051590286193</v>
+        <v>62.23259022315145</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>36.26051591313404</v>
+        <v>57.68667134331869</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>36.26051591956043</v>
+        <v>63.35375306922153</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>36.26051593077755</v>
+        <v>65.88894031537495</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>36.26051593645637</v>
+        <v>65.56778933121137</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>36.26051589021309</v>
+        <v>30.06466623620653</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>36.26051592777615</v>
+        <v>47.11733532973563</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>36.26051593639473</v>
+        <v>62.84817827204468</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>36.26051589697956</v>
+        <v>25.40499894848104</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>36.26051593111557</v>
+        <v>37.97285558923662</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>36.26051594548086</v>
+        <v>38.37451559225704</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>36.26051591743786</v>
+        <v>35.54062061457376</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>36.26051595515403</v>
+        <v>52.7617664552745</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>36.2605159715889</v>
+        <v>59.67494221746239</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>36.26051592517235</v>
+        <v>9.131077114743327</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>36.26051596689359</v>
+        <v>56.07107936949614</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>36.26051598123141</v>
+        <v>61.92375078182792</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>36.26051597851645</v>
+        <v>50.25750063319687</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>36.26051599395793</v>
+        <v>57.67099805142566</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>36.2605160007182</v>
+        <v>57.08845187125782</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>36.26051594485198</v>
+        <v>30.24087546929773</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>36.26051599207539</v>
+        <v>61.62104854380499</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>36.26051600208784</v>
+        <v>66.42416969801974</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>36.2605159434538</v>
+        <v>28.81398901082508</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>36.26051597967449</v>
+        <v>42.52988046651699</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>36.26051599464046</v>
+        <v>44.57555600411409</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>36.2605159640315</v>
+        <v>37.8284605513088</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>36.26051600397794</v>
+        <v>61.83393882008406</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>36.26051602103115</v>
+        <v>63.3701128557982</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>36.26051597393742</v>
+        <v>9.52292793752401</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>36.26051601791472</v>
+        <v>69.7522687129937</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>36.26051603206675</v>
+        <v>70.12073096177355</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>36.26051602806951</v>
+        <v>82.15890041920754</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>36.26051604220563</v>
+        <v>82.76731368159597</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>36.26051604775732</v>
+        <v>87.42637468066835</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>36.26051599006041</v>
+        <v>37.04109136156112</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>36.2605160373274</v>
+        <v>78.21302512243493</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>36.26051604768214</v>
+        <v>85.43981441094272</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>36.26051584165319</v>
+        <v>12.57759886163654</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>36.26051587141564</v>
+        <v>30.45429111415761</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>36.26051588250473</v>
+        <v>37.59664033542018</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>36.2605158616707</v>
+        <v>1.767482216861012</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>36.26051589768338</v>
+        <v>29.44680033458759</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>36.26051590914402</v>
+        <v>42.37856115635556</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>36.26051586394883</v>
+        <v>2.501717633273216</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>36.26051590147699</v>
+        <v>53.67773188141741</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>36.26051591152999</v>
+        <v>58.41575674093386</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>36.26051591799482</v>
+        <v>59.54544510002719</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>36.26051592897104</v>
+        <v>64.98612291743495</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>36.26051593431115</v>
+        <v>67.64325519112728</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>36.26051588658747</v>
+        <v>10.00388177808125</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>36.26051592604446</v>
+        <v>55.48405034881377</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>36.26051593437199</v>
+        <v>64.25621271983707</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>36.2605158901714</v>
+        <v>11.94586497732043</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>36.26051592515658</v>
+        <v>32.72791217187966</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>36.26051593917271</v>
+        <v>34.70320596746193</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>36.26051590926912</v>
+        <v>-0.635352803580254</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>36.26051594835965</v>
+        <v>26.40914268856631</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>36.26051596422249</v>
+        <v>33.58259086520925</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>36.26051591792555</v>
+        <v>-0.3706490960709203</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>36.26051596077833</v>
+        <v>46.00835844874003</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>36.26051597460213</v>
+        <v>56.19022275353707</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>36.2605159728734</v>
+        <v>43.06983560109057</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>36.26051598773871</v>
+        <v>51.56633271457649</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>36.26051599426413</v>
+        <v>52.02014685274234</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>36.26051593705164</v>
+        <v>4.178608609860888</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>36.26051598570355</v>
+        <v>48.70102155743106</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>36.26051599563905</v>
+        <v>58.50528917160626</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>36.26051593771962</v>
+        <v>12.22611406232761</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>36.2605159747654</v>
+        <v>33.84557515336416</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>36.26051598957391</v>
+        <v>41.10387829246974</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>36.26051595731084</v>
+        <v>-0.2130535001432179</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>36.26051599878084</v>
+        <v>35.13939452281197</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>36.26051601541131</v>
+        <v>43.86228659423077</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>36.26051596794984</v>
+        <v>0.4295825338872845</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>36.26051601298578</v>
+        <v>55.72774948021329</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>36.2605160268004</v>
+        <v>66.43349884692547</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>36.26051602365537</v>
+        <v>65.17022856472715</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>36.26051603742525</v>
+        <v>75.79410680685287</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>36.26051604278836</v>
+        <v>84.30265636712335</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>36.26051598351145</v>
+        <v>6.711136292633455</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>36.26051603259118</v>
+        <v>69.38143085301431</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>36.26051604269382</v>
+        <v>80.19182353557902</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>36.26051583628881</v>
+        <v>15.44146931623418</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>36.26051586244239</v>
+        <v>14.44767089321376</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>36.26051587292066</v>
+        <v>17.45748259730261</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>36.26051585367424</v>
+        <v>1.79638848128975</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>36.26051588516651</v>
+        <v>17.20852790499287</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>36.26051589607159</v>
+        <v>21.24419030240578</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>36.2605158548125</v>
+        <v>7.500493416429784</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>36.26051588782117</v>
+        <v>28.33337991016293</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>36.26051589750505</v>
+        <v>29.33052294686843</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>36.26051590439177</v>
+        <v>23.69093884498575</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>36.26051591460696</v>
+        <v>28.88786346227108</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>36.26051592007128</v>
+        <v>31.31227672968698</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>36.26051587772914</v>
+        <v>18.96512180147527</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>36.26051591226646</v>
+        <v>23.08659187675644</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>36.26051592030301</v>
+        <v>28.391120135855</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>36.26051588665541</v>
+        <v>13.05976668676432</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>36.26051591774375</v>
+        <v>29.39396229844331</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>36.26051593132014</v>
+        <v>35.89319494596037</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>36.2605159041642</v>
+        <v>5.187920214145713</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>36.26051593870619</v>
+        <v>27.34190247135492</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>36.26051595421295</v>
+        <v>40.81639188994051</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>36.26051591136014</v>
+        <v>5.868554467999896</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>36.26051594945319</v>
+        <v>41.72324571094617</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>36.26051596307641</v>
+        <v>57.97407754665994</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>36.26051596168228</v>
+        <v>38.59584785649902</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>36.26051597575253</v>
+        <v>45.599204612321</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>36.26051598224425</v>
+        <v>56.54984910512046</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>36.26051593056589</v>
+        <v>11.01269895860273</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>36.26051597424273</v>
+        <v>47.57911327691612</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>36.26051598386803</v>
+        <v>58.05327448394622</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>36.26051593155396</v>
+        <v>17.11853728895093</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>36.26051596470754</v>
+        <v>35.80278597303256</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>36.26051597893824</v>
+        <v>45.90949910096398</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>36.26051594929724</v>
+        <v>4.879784249893369</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>36.26051598611878</v>
+        <v>34.39575162798802</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>36.26051600226217</v>
+        <v>48.02140040012348</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>36.2605159585028</v>
+        <v>8.349991727668481</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>36.26051599881765</v>
+        <v>55.75908622583194</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>36.26051601229428</v>
+        <v>70.57853183135634</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>36.26051600940619</v>
+        <v>57.20833517554468</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>36.26051602241779</v>
+        <v>62.94775668849353</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>36.26051602774562</v>
+        <v>81.55262826157656</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>36.26051597415265</v>
+        <v>18.86490310362921</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>36.26051601805226</v>
+        <v>59.02164429165462</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>36.2605160279611</v>
+        <v>77.32777641018137</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>36.26051584179476</v>
+        <v>13.65384434647221</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>36.26051587041385</v>
+        <v>15.87805112213742</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>36.26051588162717</v>
+        <v>21.17398444858092</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>36.26051586233901</v>
+        <v>-4.528722287593723</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>36.26051589671389</v>
+        <v>23.44021852720172</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>36.26051590840081</v>
+        <v>31.1803675281611</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>36.26051586409756</v>
+        <v>1.537043237976128</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>36.26051590023342</v>
+        <v>36.94905908819692</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>36.26051591057774</v>
+        <v>39.62234823249196</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>36.26051591715048</v>
+        <v>33.58437385878479</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>36.26051592837006</v>
+        <v>40.0612944802012</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>36.2605159341022</v>
+        <v>47.21087268230352</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>36.26051588812123</v>
+        <v>17.0356787249729</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>36.26051592550382</v>
+        <v>35.28657246164062</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>36.26051593413536</v>
+        <v>49.96452342876907</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>36.26051589463987</v>
+        <v>7.605652682088504</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>36.26051592843694</v>
+        <v>18.37346544808309</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>36.26051594294236</v>
+        <v>31.72672326632777</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>36.26051591479519</v>
+        <v>2.869465790089617</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>36.26051595215574</v>
+        <v>16.73382093536351</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>36.26051596877885</v>
+        <v>47.25791634978904</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>36.26051592252898</v>
+        <v>-2.370887371888699</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>36.26051596387715</v>
+        <v>30.36802955874057</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>36.26051597837454</v>
+        <v>54.06941023952366</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>36.2605159757663</v>
+        <v>28.78904312318924</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>36.26051599121236</v>
+        <v>38.41424967525658</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>36.26051599804254</v>
+        <v>53.47839956771266</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>36.26051594243641</v>
+        <v>7.409355124450954</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>36.26051598944356</v>
+        <v>43.90060433481881</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>36.26051599954197</v>
+        <v>57.03577854342139</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>36.26051594120526</v>
+        <v>14.80278552243618</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>36.26051597709238</v>
+        <v>24.44038087002882</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>36.26051599221563</v>
+        <v>37.94846562484179</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>36.26051596150253</v>
+        <v>2.71031252189006</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>36.26051600110483</v>
+        <v>22.88295671731829</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>36.26051601834922</v>
+        <v>42.97829863423541</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>36.26051597141898</v>
+        <v>-1.774153486049656</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>36.26051601504016</v>
+        <v>41.69143478286227</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>36.26051602934792</v>
+        <v>60.0767865167609</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>36.26051602545467</v>
+        <v>57.51177409922327</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>36.26051603958975</v>
+        <v>59.69869183033492</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>36.26051604519844</v>
+        <v>75.47733939887593</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>36.26051598774311</v>
+        <v>10.64059730199934</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>36.2605160347894</v>
+        <v>49.42858273084751</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>36.26051604524123</v>
+        <v>71.67716123889879</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>36.26051585034121</v>
+        <v>20.90241808239451</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>36.26051587786861</v>
+        <v>30.64786857652895</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>36.26051588817607</v>
+        <v>36.40454042280892</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>36.26051587010016</v>
+        <v>7.44293028116947</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>36.26051590364435</v>
+        <v>44.82223131752379</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>36.26051591408629</v>
+        <v>48.40914741041243</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>36.26051587201145</v>
+        <v>9.176894974600209</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>36.26051590679236</v>
+        <v>61.01440306988875</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>36.26051591614655</v>
+        <v>59.17276814811515</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>36.26051592232052</v>
+        <v>64.16753090136601</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>36.2605159325925</v>
+        <v>66.16253521274889</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>36.26051593768702</v>
+        <v>69.56477543697525</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>36.26051589368883</v>
+        <v>23.85286649562314</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>36.26051592938177</v>
+        <v>36.56607373680828</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>36.26051593753701</v>
+        <v>68.93931669025335</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>36.26051589868419</v>
+        <v>26.24870426605657</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>36.26051593136145</v>
+        <v>40.76534582653915</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>36.26051594431058</v>
+        <v>40.12136696460867</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>36.26051591762943</v>
+        <v>7.124403478939939</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>36.26051595433218</v>
+        <v>37.38512008588105</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>36.26051596879793</v>
+        <v>41.68469093207533</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>36.26051592547802</v>
+        <v>8.234434680282718</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>36.26051596545265</v>
+        <v>57.08642583431645</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>36.26051597824462</v>
+        <v>60.7408739298619</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>36.2605159764959</v>
+        <v>53.52643627303522</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>36.26051599047993</v>
+        <v>57.40346255959141</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>36.26051599650869</v>
+        <v>60.86474681384819</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>36.26051594357779</v>
+        <v>27.1150990014121</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>36.26051598846274</v>
+        <v>61.32144767139894</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>36.26051599767123</v>
+        <v>64.08409739956696</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>36.2605159423962</v>
+        <v>25.87008230893645</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>36.26051597698122</v>
+        <v>41.87010331821545</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>36.26051599061376</v>
+        <v>44.89079601150342</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>36.26051596165384</v>
+        <v>6.86852646624186</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>36.26051600049826</v>
+        <v>44.05403934103843</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>36.26051601562828</v>
+        <v>46.43971343539773</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>36.26051597141334</v>
+        <v>6.844339224028843</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>36.26051601343424</v>
+        <v>68.48685345423908</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>36.2605160261486</v>
+        <v>69.28440568660223</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>36.26051602303795</v>
+        <v>77.83415401874447</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>36.26051603594183</v>
+        <v>77.93229686266912</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>36.26051604090998</v>
+        <v>83.36036671195075</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>36.26051598624043</v>
+        <v>30.72489199355434</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>36.26051603129653</v>
+        <v>72.66125360572917</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>36.26051604073477</v>
+        <v>80.12740750397565</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>36.26051584378826</v>
+        <v>12.93324498920502</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>36.26051587330694</v>
+        <v>30.70672016200271</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>36.26051588436023</v>
+        <v>36.29854284551305</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>36.26051586378576</v>
+        <v>3.338266146143361</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>36.26051589947234</v>
+        <v>36.00239422000354</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>36.26051591092381</v>
+        <v>43.37534263834159</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>36.26051586610693</v>
+        <v>3.018534455554416</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>36.2605159033037</v>
+        <v>52.92255197540938</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>36.26051591336723</v>
+        <v>55.90852766204132</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>36.26051591973118</v>
+        <v>55.62472515004693</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>36.26051593068224</v>
+        <v>66.11683944151918</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>36.26051593598543</v>
+        <v>64.02921917474983</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>36.26051588859911</v>
+        <v>9.863744117203211</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>36.26051592773239</v>
+        <v>53.99104444448999</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>36.26051593601773</v>
+        <v>62.64807358751959</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>36.2605158921296</v>
+        <v>13.08589859976583</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>36.26051592680511</v>
+        <v>34.09296308300429</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>36.26051594082369</v>
+        <v>35.10063795734578</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>36.26051591109481</v>
+        <v>2.543998305417702</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>36.260515949783</v>
+        <v>31.42990014250481</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>36.26051596565257</v>
+        <v>36.51421647647033</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>36.26051591973455</v>
+        <v>3.226997780667567</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>36.2605159621567</v>
+        <v>48.84963495250926</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>36.26051597603261</v>
+        <v>57.99315984511509</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>36.26051597423938</v>
+        <v>46.20737434752808</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>36.26051598910513</v>
+        <v>55.85689179326656</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>36.26051599555032</v>
+        <v>55.79535309197363</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>36.26051593877818</v>
+        <v>9.846375447332598</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>36.26051598709601</v>
+        <v>58.34239449807457</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>36.26051599692435</v>
+        <v>62.64096048133175</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>36.26051593900844</v>
+        <v>11.19690462219954</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>36.26051597572351</v>
+        <v>30.37583942501652</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>36.26051599051182</v>
+        <v>38.72437547850272</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>36.26051595847689</v>
+        <v>0.6389652994064505</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>36.26051599952194</v>
+        <v>35.2711655052928</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>36.26051601615695</v>
+        <v>43.34831451482751</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>36.26051596904598</v>
+        <v>1.553869593977254</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>36.26051601362885</v>
+        <v>51.42569769384161</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>36.26051602748999</v>
+        <v>64.74993660403567</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>36.26051602427592</v>
+        <v>61.09784814566667</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>36.26051603800493</v>
+        <v>71.72950657091599</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>36.26051604332109</v>
+        <v>80.5113450532326</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>36.2605159845314</v>
+        <v>7.449517879537211</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>36.26051603320288</v>
+        <v>61.80990995749825</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>36.26051604325033</v>
+        <v>75.80147562640053</v>
       </c>
     </row>
   </sheetData>
